--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2901"/>
+  <dimension ref="A1:H2876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90187,10 +90187,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90221,10 +90219,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90247,10 +90243,8 @@
       <c r="E2822" t="inlineStr"/>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
@@ -90281,10 +90275,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90315,10 +90307,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90353,10 +90343,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2826">
@@ -90391,10 +90379,8 @@
           <t>50K</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -90425,10 +90411,8 @@
           <t>-10K</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -90459,10 +90443,8 @@
           <t>40K</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -90493,10 +90475,8 @@
           <t>65.0%</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2830">
@@ -90527,10 +90507,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -90565,10 +90543,8 @@
           <t>205K</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2832">
@@ -90603,10 +90579,8 @@
           <t>4.1%</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2833">
@@ -90641,10 +90615,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2834">
@@ -90679,10 +90651,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2835">
@@ -90713,10 +90683,8 @@
           <t>62.5%</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -90751,10 +90719,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -90785,10 +90751,8 @@
           <t>25K</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -90819,10 +90783,8 @@
           <t>-5K</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -90857,10 +90819,8 @@
           <t>180K</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -90891,10 +90851,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -90925,10 +90883,8 @@
           <t>$607.0B</t>
         </is>
       </c>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -90951,10 +90907,8 @@
       <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -90981,10 +90935,8 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -91015,10 +90967,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -91053,10 +91003,8 @@
           <t>72</t>
         </is>
       </c>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2846">
@@ -91087,10 +91035,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -91121,10 +91067,8 @@
           <t>69.5</t>
         </is>
       </c>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -91155,10 +91099,8 @@
           <t>74.3</t>
         </is>
       </c>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -91189,10 +91131,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -91227,10 +91167,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -91253,10 +91191,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2852">
@@ -91287,10 +91223,8 @@
           <t>$4.1B</t>
         </is>
       </c>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -91313,10 +91247,8 @@
       <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -91339,10 +91271,8 @@
       <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -91373,10 +91303,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -91407,10 +91335,8 @@
           <t>$ 18B</t>
         </is>
       </c>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -91441,10 +91367,8 @@
           <t>$3.3T</t>
         </is>
       </c>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -91467,10 +91391,8 @@
           <t>116</t>
         </is>
       </c>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -91497,10 +91419,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -91523,10 +91443,8 @@
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -91549,10 +91467,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2862">
@@ -91597,10 +91513,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2864">
@@ -91631,10 +91545,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2865">
@@ -91665,10 +91577,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2866">
@@ -91713,10 +91623,8 @@
           <t>¥ 1840B</t>
         </is>
       </c>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2868">
@@ -91747,10 +91655,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2869">
@@ -91777,10 +91683,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2870">
@@ -91803,10 +91707,8 @@
       <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2871">
@@ -91829,48 +91731,50 @@
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
-      <c r="A2872" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2872" t="inlineStr"/>
-      <c r="C2872" t="inlineStr"/>
+      <c r="A2872" t="inlineStr"/>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>Outstanding Loan Growth YoYJAN</t>
+        </is>
+      </c>
       <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr"/>
+      <c r="E2872" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr"/>
+      <c r="H2872" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2873">
-      <c r="A2873" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2873" t="inlineStr"/>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
+          <t>Total Social FinancingJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
+      <c r="E2873" t="inlineStr"/>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
       <c r="H2873" t="inlineStr">
@@ -91880,25 +91784,21 @@
       </c>
     </row>
     <row r="2874">
-      <c r="A2874" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2874" t="inlineStr"/>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
@@ -91912,748 +91812,38 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2875" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2875" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
+          <t>Tuesday February 11 2025</t>
+        </is>
+      </c>
+      <c r="B2875" t="inlineStr"/>
+      <c r="C2875" t="inlineStr"/>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
+      <c r="E2875" t="inlineStr"/>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2875" t="inlineStr"/>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E2876" t="inlineStr"/>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
+      <c r="G2876" t="inlineStr"/>
       <c r="H2876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2877">
-      <c r="A2877" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2877" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2877" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr">
-        <is>
-          <t>8.6%</t>
-        </is>
-      </c>
-      <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr">
-        <is>
-          <t>8.50%</t>
-        </is>
-      </c>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2878" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2879" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2879" t="inlineStr">
-        <is>
-          <t>Participation RateDEC</t>
-        </is>
-      </c>
-      <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr">
-        <is>
-          <t>54.2%</t>
-        </is>
-      </c>
-      <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr">
-        <is>
-          <t>54.6%</t>
-        </is>
-      </c>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2880">
-      <c r="A2880" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2880" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2880" t="inlineStr">
-        <is>
-          <t>Auto Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
-      <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2881" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2881" t="inlineStr">
-        <is>
-          <t>Auto Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2882">
-      <c r="A2882" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2882" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2882" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr"/>
-      <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2883">
-      <c r="A2883" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2883" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2883" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr"/>
-      <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2884">
-      <c r="A2884" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2884" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2884" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr"/>
-      <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2885">
-      <c r="A2885" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2885" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2885" t="inlineStr">
-        <is>
-          <t>BoC Market Participants Survey</t>
-        </is>
-      </c>
-      <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr"/>
-      <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2886" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2886" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
-        </is>
-      </c>
-      <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2887" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2887" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr"/>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2888" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2888" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr"/>
-      <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2889" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2889" t="inlineStr">
-        <is>
-          <t>Westpac Consumer Confidence ChangeFEB</t>
-        </is>
-      </c>
-      <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr"/>
-      <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2890" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2890" t="inlineStr">
-        <is>
-          <t>Westpac Consumer Confidence IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr"/>
-      <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>07:01 PM</t>
-        </is>
-      </c>
-      <c r="B2891" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2891" t="inlineStr">
-        <is>
-          <t>BRC Retail Sales Monitor YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr"/>
-      <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2892" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2892" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2893" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2893" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>127.7</t>
-        </is>
-      </c>
-      <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2894">
-      <c r="A2894" t="inlineStr"/>
-      <c r="B2894" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2894" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2895">
-      <c r="A2895" t="inlineStr"/>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>New Yuan LoansJAN</t>
-        </is>
-      </c>
-      <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
-      <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2896">
-      <c r="A2896" t="inlineStr"/>
-      <c r="B2896" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2896" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2897">
-      <c r="A2897" t="inlineStr"/>
-      <c r="B2897" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2897" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2898">
-      <c r="A2898" t="inlineStr"/>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr"/>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr"/>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr">
-        <is>
-          <t>10.5%</t>
-        </is>
-      </c>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B2900" t="inlineStr"/>
-      <c r="C2900" t="inlineStr"/>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr"/>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr"/>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
-      <c r="H2901" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2876"/>
+  <dimension ref="A1:H2881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91474,265 +91474,269 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2862" t="inlineStr"/>
-      <c r="C2862" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2862" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr"/>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr"/>
+      <c r="H2862" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2863" t="n">
-        <v>1</v>
+      <c r="G2863" t="inlineStr"/>
+      <c r="H2863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Westpac Consumer Confidence ChangeFEB</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2864" t="n">
-        <v>2</v>
+      <c r="G2864" t="inlineStr"/>
+      <c r="H2864" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Westpac Consumer Confidence IndexFEB</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="E2865" t="inlineStr"/>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2865" t="n">
-        <v>2</v>
+      <c r="G2865" t="inlineStr"/>
+      <c r="H2865" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2866" t="inlineStr"/>
-      <c r="C2866" t="inlineStr"/>
+          <t>07:01 PM</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>BRC Retail Sales Monitor YoYJAN</t>
+        </is>
+      </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr"/>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr"/>
+      <c r="H2866" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>NAB Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>¥3352.5B</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
-      <c r="H2867" t="n">
-        <v>2</v>
+      <c r="G2867" t="inlineStr"/>
+      <c r="H2867" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Bank Lending YoYJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>127.7</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2868" t="n">
-        <v>3</v>
+      <c r="G2868" t="inlineStr"/>
+      <c r="H2868" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2869">
-      <c r="A2869" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2869" t="inlineStr"/>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr"/>
+      <c r="E2869" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2869" t="n">
-        <v>3</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H2869" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2870">
-      <c r="A2870" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2870" t="inlineStr"/>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalDEC</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="n">
-        <v>3</v>
+      <c r="H2870" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr"/>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYJAN</t>
+          <t>M2 Money Supply YoYJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>-5.5%</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="n">
-        <v>3</v>
+      <c r="H2871" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2872">
@@ -91849,6 +91853,160 @@
         </is>
       </c>
     </row>
+    <row r="2877">
+      <c r="A2877" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2877" t="inlineStr">
+        <is>
+          <t>Unemployment RateQ4</t>
+        </is>
+      </c>
+      <c r="D2877" t="inlineStr"/>
+      <c r="E2877" t="inlineStr">
+        <is>
+          <t>7.4%</t>
+        </is>
+      </c>
+      <c r="F2877" t="inlineStr"/>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>7.60%</t>
+        </is>
+      </c>
+      <c r="H2877" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2878" t="inlineStr"/>
+      <c r="E2878" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="F2878" t="inlineStr"/>
+      <c r="G2878" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2878" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2879" t="inlineStr"/>
+      <c r="E2879" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="F2879" t="inlineStr"/>
+      <c r="G2879" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
+      <c r="H2879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="inlineStr"/>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2880" t="inlineStr">
+        <is>
+          <t>Auto Production YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2880" t="inlineStr"/>
+      <c r="E2880" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F2880" t="inlineStr"/>
+      <c r="G2880" t="inlineStr"/>
+      <c r="H2880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="inlineStr"/>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2881" t="inlineStr">
+        <is>
+          <t>Auto Sales YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2881" t="inlineStr"/>
+      <c r="E2881" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="F2881" t="inlineStr"/>
+      <c r="G2881" t="inlineStr"/>
+      <c r="H2881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2932"/>
+  <dimension ref="A1:H2909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86309,10 +86309,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -86343,10 +86341,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86377,10 +86373,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86407,10 +86401,8 @@
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -86437,10 +86429,8 @@
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -86467,10 +86457,8 @@
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86497,10 +86485,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86531,10 +86517,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2700">
@@ -86565,10 +86549,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -86599,10 +86581,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -86633,10 +86613,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -86663,10 +86641,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -86693,10 +86669,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -86723,10 +86697,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -86753,10 +86725,8 @@
       </c>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -86783,10 +86753,8 @@
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -86809,10 +86777,8 @@
       <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -86843,10 +86809,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -86877,10 +86841,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -86915,10 +86877,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2712">
@@ -86949,10 +86909,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2713">
@@ -86983,10 +86941,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87017,10 +86973,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87055,10 +87009,8 @@
           <t>$ -93.0B</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2716">
@@ -87089,10 +87041,8 @@
           <t>$ 262B</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2717">
@@ -87123,10 +87073,8 @@
           <t>$ 355.0B</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2718">
@@ -87149,10 +87097,8 @@
       <c r="E2718" t="inlineStr"/>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87175,10 +87121,8 @@
       <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87201,10 +87145,8 @@
       <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2721">
@@ -87235,10 +87177,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -87269,10 +87209,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87307,10 +87245,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2724">
@@ -87345,10 +87281,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2725">
@@ -87383,10 +87317,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2726">
@@ -87417,10 +87349,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -87451,10 +87381,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87485,10 +87413,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87519,10 +87445,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -87549,10 +87473,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -87579,10 +87501,8 @@
       </c>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -87609,10 +87529,8 @@
       </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -87639,10 +87557,8 @@
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr"/>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -87669,10 +87585,8 @@
       </c>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -87699,10 +87613,8 @@
       </c>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -87729,10 +87641,8 @@
       </c>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -87759,10 +87669,8 @@
       </c>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -87789,10 +87697,8 @@
       </c>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -87823,10 +87729,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -87857,10 +87761,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -87891,10 +87793,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -87925,10 +87825,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -87959,10 +87857,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -87993,10 +87889,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88023,10 +87917,8 @@
       </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88053,10 +87945,8 @@
       </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88079,10 +87969,8 @@
       <c r="E2747" t="inlineStr"/>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2748">
@@ -88105,10 +87993,8 @@
       <c r="E2748" t="inlineStr"/>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -88139,10 +88025,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2750">
@@ -88173,10 +88057,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88207,10 +88089,8 @@
           <t>-16</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -88241,10 +88121,8 @@
           <t>$10.0B</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88271,10 +88149,8 @@
       </c>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88301,10 +88177,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -88339,10 +88213,8 @@
           <t>A$6.2B</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2756">
@@ -88369,10 +88241,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88399,10 +88269,8 @@
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -88425,10 +88293,8 @@
       <c r="E2758" t="inlineStr"/>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2759">
@@ -88455,10 +88321,8 @@
       </c>
       <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -88485,10 +88349,8 @@
       </c>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -88511,10 +88373,8 @@
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr"/>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -88541,10 +88401,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -88593,10 +88451,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -88627,10 +88483,8 @@
           <t>43</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -88661,10 +88515,8 @@
           <t>43</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -88695,10 +88547,8 @@
           <t>38</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -88729,10 +88579,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -88767,10 +88615,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -88797,10 +88643,8 @@
       </c>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -88827,10 +88671,8 @@
       </c>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -88857,10 +88699,8 @@
       </c>
       <c r="F2772" t="inlineStr"/>
       <c r="G2772" t="inlineStr"/>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -88887,10 +88727,8 @@
       </c>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -88925,10 +88763,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -88959,10 +88795,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2776">
@@ -88989,10 +88823,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89019,10 +88851,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89049,10 +88879,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89079,10 +88907,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89109,10 +88935,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89143,10 +88967,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -89181,10 +89003,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2783">
@@ -89207,10 +89027,8 @@
       <c r="E2783" t="inlineStr"/>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2784">
@@ -89233,10 +89051,8 @@
       <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2785">
@@ -89267,10 +89083,8 @@
         </is>
       </c>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -89301,10 +89115,8 @@
         </is>
       </c>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2787">
@@ -89335,10 +89147,8 @@
         </is>
       </c>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -89369,10 +89179,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89407,10 +89215,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -89445,10 +89251,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -89483,10 +89287,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2792">
@@ -89517,10 +89319,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89551,10 +89351,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89577,10 +89375,8 @@
       <c r="E2794" t="inlineStr"/>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -89611,10 +89407,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2796">
@@ -89641,10 +89435,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -89667,10 +89459,8 @@
       <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -89697,10 +89487,8 @@
       </c>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -89727,10 +89515,8 @@
       </c>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -89757,10 +89543,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -89783,10 +89567,8 @@
       <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -89813,10 +89595,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -89843,10 +89623,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -89869,10 +89647,8 @@
       <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -89903,10 +89679,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2806">
@@ -89929,10 +89703,8 @@
       <c r="E2806" t="inlineStr"/>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2807">
@@ -89959,10 +89731,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -89997,10 +89767,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2809">
@@ -90035,10 +89803,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2810">
@@ -90065,10 +89831,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90095,10 +89859,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90133,10 +89895,8 @@
           <t>6.25%</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2813">
@@ -90171,10 +89931,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90201,10 +89959,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90227,10 +89983,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90253,10 +90007,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90279,10 +90031,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -90305,10 +90055,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -90331,10 +90079,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90357,52 +90103,70 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2821" t="inlineStr"/>
-      <c r="C2821" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2821" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr"/>
+      <c r="E2821" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
       <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr"/>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2821" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
       <c r="E2822" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2822" t="inlineStr">
@@ -90414,67 +90178,55 @@
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>BoE Pill Speech</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
-      <c r="F2823" t="inlineStr">
-        <is>
-          <t>108.1</t>
-        </is>
-      </c>
-      <c r="G2823" t="inlineStr">
-        <is>
-          <t>108.2</t>
-        </is>
-      </c>
+      <c r="E2823" t="inlineStr"/>
+      <c r="F2823" t="inlineStr"/>
+      <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
       <c r="E2824" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2824" t="inlineStr">
@@ -90486,97 +90238,105 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
       <c r="E2825" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2825" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
       <c r="E2826" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr"/>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F2826" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="G2826" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H2826" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
       <c r="E2827" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2827" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>48.5K</t>
         </is>
       </c>
       <c r="G2827" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>50K</t>
         </is>
       </c>
       <c r="H2827" t="inlineStr">
@@ -90588,59 +90348,63 @@
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
       <c r="E2828" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr"/>
+      <c r="G2828" t="inlineStr">
+        <is>
+          <t>-10K</t>
+        </is>
+      </c>
       <c r="H2828" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40K</t>
         </is>
       </c>
       <c r="H2829" t="inlineStr">
@@ -90652,29 +90416,29 @@
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
       <c r="E2830" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="H2830" t="inlineStr">
@@ -90686,221 +90450,253 @@
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
+      <c r="E2831" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
+      <c r="G2831" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2831" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
       <c r="E2832" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
-        </is>
-      </c>
-      <c r="F2832" t="inlineStr"/>
+          <t>256K</t>
+        </is>
+      </c>
+      <c r="F2832" t="inlineStr">
+        <is>
+          <t>170K</t>
+        </is>
+      </c>
       <c r="G2832" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2832" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
       <c r="E2833" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
-        </is>
-      </c>
-      <c r="F2833" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="F2833" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G2833" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2833" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>€50.101B</t>
-        </is>
-      </c>
-      <c r="F2834" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2834" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2834" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2834" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>€275.078B</t>
-        </is>
-      </c>
-      <c r="F2835" t="inlineStr"/>
-      <c r="G2835" t="inlineStr"/>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F2835" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="G2835" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2835" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2836" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2837" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F2837" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G2837" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2837" t="inlineStr">
@@ -90912,29 +90708,29 @@
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2838" t="inlineStr">
@@ -90946,23 +90742,31 @@
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>ECB Guindos Speech</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr"/>
+      <c r="E2839" t="inlineStr">
+        <is>
+          <t>-13K</t>
+        </is>
+      </c>
       <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr"/>
+      <c r="G2839" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2839" t="inlineStr">
         <is>
           <t>3</t>
@@ -90972,27 +90776,35 @@
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
-        </is>
-      </c>
-      <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr"/>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="F2840" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="G2840" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2840" t="inlineStr">
         <is>
           <t>3</t>
@@ -91002,27 +90814,31 @@
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr"/>
-      <c r="G2841" t="inlineStr"/>
+      <c r="G2841" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2841" t="inlineStr">
         <is>
           <t>3</t>
@@ -91032,29 +90848,29 @@
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
       <c r="E2842" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>$609.1B</t>
         </is>
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>$607.0B</t>
         </is>
       </c>
       <c r="H2842" t="inlineStr">
@@ -91066,161 +90882,157 @@
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr">
-        <is>
-          <t>$629.56B</t>
-        </is>
-      </c>
+      <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
       <c r="H2843" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2844" t="inlineStr"/>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="F2846" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="F2846" t="inlineStr">
+        <is>
+          <t>71.8</t>
+        </is>
+      </c>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2847" t="inlineStr">
@@ -91232,55 +91044,63 @@
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>BoE Pill Speech</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
-      <c r="E2848" t="inlineStr"/>
+      <c r="E2848" t="inlineStr">
+        <is>
+          <t>69.3</t>
+        </is>
+      </c>
       <c r="F2848" t="inlineStr"/>
-      <c r="G2848" t="inlineStr"/>
+      <c r="G2848" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
       <c r="H2848" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2849" t="inlineStr">
@@ -91292,29 +91112,29 @@
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2850" t="inlineStr">
@@ -91326,73 +91146,61 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G2851" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2851" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
-      <c r="F2852" t="inlineStr">
-        <is>
-          <t>48.5K</t>
-        </is>
-      </c>
-      <c r="G2852" t="inlineStr">
-        <is>
-          <t>50K</t>
-        </is>
-      </c>
+      <c r="E2852" t="inlineStr"/>
+      <c r="F2852" t="inlineStr"/>
+      <c r="G2852" t="inlineStr"/>
       <c r="H2852" t="inlineStr">
         <is>
           <t>2</t>
@@ -91402,29 +91210,29 @@
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>57.5K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr">
         <is>
-          <t>-10K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2853" t="inlineStr">
@@ -91436,97 +91244,81 @@
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr">
-        <is>
-          <t>40K</t>
-        </is>
-      </c>
+      <c r="G2854" t="inlineStr"/>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
-      <c r="E2855" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2855" t="inlineStr"/>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2855" t="inlineStr"/>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
@@ -91538,7 +91330,7 @@
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
@@ -91548,151 +91340,119 @@
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="F2857" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
+          <t>$-7.49B</t>
+        </is>
+      </c>
+      <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2858">
-      <c r="A2858" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2858" t="inlineStr"/>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.2T</t>
         </is>
       </c>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2859">
-      <c r="A2859" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2859" t="inlineStr"/>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
-      <c r="E2859" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2859" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2859" t="inlineStr"/>
+      <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2860">
-      <c r="A2860" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2860" t="inlineStr"/>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F2860" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>118.1</t>
+        </is>
+      </c>
+      <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2861">
-      <c r="A2861" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2861" t="inlineStr"/>
       <c r="B2861" t="inlineStr">
         <is>
           <t>US</t>
@@ -91700,33 +91460,25 @@
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="G2861" t="inlineStr"/>
       <c r="H2861" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2862">
-      <c r="A2862" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2862" t="inlineStr"/>
       <c r="B2862" t="inlineStr">
         <is>
           <t>US</t>
@@ -91734,25 +91486,17 @@
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F2862" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G2862" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2862" t="inlineStr"/>
+      <c r="G2862" t="inlineStr"/>
       <c r="H2862" t="inlineStr">
         <is>
           <t>3</t>
@@ -91762,197 +91506,161 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2863" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2863" t="inlineStr">
-        <is>
-          <t>Government PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2863" t="inlineStr"/>
+      <c r="C2863" t="inlineStr"/>
       <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2863" t="inlineStr"/>
+      <c r="H2863" t="inlineStr"/>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2865" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2867" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2867" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr"/>
+      <c r="C2867" t="inlineStr"/>
       <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
+      <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2867" t="inlineStr"/>
+      <c r="H2867" t="inlineStr"/>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr"/>
+      <c r="E2868" t="inlineStr">
+        <is>
+          <t>¥3352.5B</t>
+        </is>
+      </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>¥ 1840B</t>
+        </is>
+      </c>
       <c r="H2868" t="inlineStr">
         <is>
           <t>2</t>
@@ -91962,27 +91670,31 @@
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>TRY-323.9B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr"/>
+      <c r="G2869" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2869" t="inlineStr">
         <is>
           <t>3</t>
@@ -91992,29 +91704,25 @@
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
@@ -92026,69 +91734,49 @@
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2871" t="inlineStr">
-        <is>
-          <t>71.8</t>
-        </is>
-      </c>
-      <c r="G2871" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="E2871" t="inlineStr"/>
+      <c r="F2871" t="inlineStr"/>
+      <c r="G2871" t="inlineStr"/>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2872">
-      <c r="A2872" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2872" t="inlineStr"/>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2872" t="inlineStr"/>
       <c r="H2872" t="inlineStr">
         <is>
           <t>3</t>
@@ -92098,65 +91786,41 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2873" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2873" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2873" t="inlineStr"/>
+      <c r="C2873" t="inlineStr"/>
       <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
+      <c r="E2873" t="inlineStr"/>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2873" t="inlineStr"/>
+      <c r="H2873" t="inlineStr"/>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="G2874" t="inlineStr"/>
       <c r="H2874" t="inlineStr">
         <is>
           <t>3</t>
@@ -92166,31 +91830,27 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Eco Watchers Survey OutlookJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2875" t="inlineStr"/>
       <c r="H2875" t="inlineStr">
         <is>
           <t>3</t>
@@ -92200,35 +91860,27 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2876" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>2.625%</t>
+        </is>
+      </c>
+      <c r="F2876" t="inlineStr"/>
+      <c r="G2876" t="inlineStr"/>
       <c r="H2876" t="inlineStr">
         <is>
           <t>3</t>
@@ -92238,23 +91890,31 @@
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr"/>
+      <c r="E2877" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="H2877" t="inlineStr">
         <is>
           <t>2</t>
@@ -92264,29 +91924,29 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>$4.8B</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>$4.1B</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
@@ -92298,23 +91958,31 @@
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr"/>
+      <c r="E2879" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr"/>
+      <c r="G2879" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H2879" t="inlineStr">
         <is>
           <t>3</t>
@@ -92324,23 +91992,31 @@
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr"/>
+      <c r="E2880" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
       <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr"/>
+      <c r="G2880" t="inlineStr">
+        <is>
+          <t>54.6%</t>
+        </is>
+      </c>
       <c r="H2880" t="inlineStr">
         <is>
           <t>3</t>
@@ -92350,29 +92026,29 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Auto Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
@@ -92384,29 +92060,29 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
@@ -92416,33 +92092,25 @@
       </c>
     </row>
     <row r="2883">
-      <c r="A2883" t="inlineStr"/>
+      <c r="A2883" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr">
-        <is>
-          <t>$3.2T</t>
-        </is>
-      </c>
-      <c r="G2883" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
+      <c r="E2883" t="inlineStr"/>
+      <c r="F2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr"/>
       <c r="H2883" t="inlineStr">
         <is>
           <t>3</t>
@@ -92450,25 +92118,25 @@
       </c>
     </row>
     <row r="2884">
-      <c r="A2884" t="inlineStr"/>
+      <c r="A2884" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr"/>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
+      <c r="G2884" t="inlineStr"/>
       <c r="H2884" t="inlineStr">
         <is>
           <t>3</t>
@@ -92476,29 +92144,25 @@
       </c>
     </row>
     <row r="2885">
-      <c r="A2885" t="inlineStr"/>
+      <c r="A2885" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
+      <c r="E2885" t="inlineStr"/>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="G2885" t="inlineStr"/>
       <c r="H2885" t="inlineStr">
         <is>
           <t>3</t>
@@ -92506,33 +92170,37 @@
       </c>
     </row>
     <row r="2886">
-      <c r="A2886" t="inlineStr"/>
+      <c r="A2886" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>BoC Market Participants Survey</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E2886" t="inlineStr"/>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr"/>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2887">
-      <c r="A2887" t="inlineStr"/>
+      <c r="A2887" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B2887" t="inlineStr">
         <is>
           <t>US</t>
@@ -92540,13 +92208,13 @@
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
@@ -92560,195 +92228,187 @@
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2888" t="inlineStr"/>
-      <c r="C2888" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2888" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr"/>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr"/>
+      <c r="H2888" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G2889" t="inlineStr"/>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Westpac Consumer Confidence ChangeFEB</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2890" t="inlineStr"/>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Westpac Consumer Confidence IndexFEB</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="E2891" t="inlineStr"/>
       <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
+      <c r="G2891" t="inlineStr"/>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2892" t="inlineStr"/>
-      <c r="C2892" t="inlineStr"/>
+          <t>07:01 PM</t>
+        </is>
+      </c>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2892" t="inlineStr">
+        <is>
+          <t>BRC Retail Sales Monitor YoYJAN</t>
+        </is>
+      </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr"/>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr"/>
+      <c r="H2892" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>NAB Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>¥3352.5B</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
+      <c r="G2893" t="inlineStr"/>
       <c r="H2893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Bank Lending YoYJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>127.7</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G2894" t="inlineStr"/>
       <c r="H2894" t="inlineStr">
         <is>
           <t>3</t>
@@ -92756,27 +92416,27 @@
       </c>
     </row>
     <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2895" t="inlineStr"/>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
+      <c r="E2895" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
@@ -92786,19 +92446,15 @@
       </c>
     </row>
     <row r="2896">
-      <c r="A2896" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2896" t="inlineStr"/>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalDEC</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
@@ -92815,18 +92471,18 @@
       <c r="A2897" t="inlineStr"/>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYJAN</t>
+          <t>M2 Money Supply YoYJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>-5.5%</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
@@ -92838,41 +92494,45 @@
       </c>
     </row>
     <row r="2898">
-      <c r="A2898" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2898" t="inlineStr"/>
-      <c r="C2898" t="inlineStr"/>
+      <c r="A2898" t="inlineStr"/>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2898" t="inlineStr">
+        <is>
+          <t>Outstanding Loan Growth YoYJAN</t>
+        </is>
+      </c>
       <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr"/>
+      <c r="E2898" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr"/>
-      <c r="H2898" t="inlineStr"/>
+      <c r="H2898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2899" t="inlineStr"/>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
+          <t>Total Social FinancingJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
+      <c r="E2899" t="inlineStr"/>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr"/>
       <c r="H2899" t="inlineStr">
@@ -92882,25 +92542,21 @@
       </c>
     </row>
     <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2900" t="inlineStr"/>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
@@ -92914,93 +92570,69 @@
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
+          <t>Tuesday February 11 2025</t>
+        </is>
+      </c>
+      <c r="B2901" t="inlineStr"/>
+      <c r="C2901" t="inlineStr"/>
       <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
+      <c r="E2901" t="inlineStr"/>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr"/>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2901" t="inlineStr"/>
     </row>
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E2902" t="inlineStr"/>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
+      <c r="G2902" t="inlineStr"/>
       <c r="H2902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>8.6%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr">
         <is>
-          <t>8.50%</t>
+          <t>7.60%</t>
         </is>
       </c>
       <c r="H2903" t="inlineStr">
@@ -93022,19 +92654,19 @@
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2904" t="inlineStr">
@@ -93056,19 +92688,19 @@
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>16.4%</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>54.6%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
@@ -93080,31 +92712,27 @@
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Auto Exports YoYJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>2.493%</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
         <is>
           <t>3</t>
@@ -93114,31 +92742,27 @@
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Auto Production YoYJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.485%</t>
         </is>
       </c>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G2907" t="inlineStr"/>
       <c r="H2907" t="inlineStr">
         <is>
           <t>3</t>
@@ -93146,23 +92770,23 @@
       </c>
     </row>
     <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2908" t="inlineStr"/>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr"/>
+      <c r="E2908" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr"/>
       <c r="H2908" t="inlineStr">
@@ -93172,644 +92796,26 @@
       </c>
     </row>
     <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2909" t="inlineStr"/>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Auto Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr"/>
+      <c r="E2909" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr"/>
       <c r="H2909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr"/>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr"/>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2911" t="inlineStr">
-        <is>
-          <t>BoC Market Participants Survey</t>
-        </is>
-      </c>
-      <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr"/>
-      <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr"/>
-      <c r="H2911" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
-        </is>
-      </c>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr"/>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2913" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2913" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr"/>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr"/>
-      <c r="H2913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2915">
-      <c r="A2915" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>Westpac Consumer Confidence ChangeFEB</t>
-        </is>
-      </c>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr"/>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr"/>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2916" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2916" t="inlineStr">
-        <is>
-          <t>Westpac Consumer Confidence IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr"/>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr"/>
-      <c r="H2916" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>07:01 PM</t>
-        </is>
-      </c>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>BRC Retail Sales Monitor YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr"/>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr"/>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2919" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2919" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr">
-        <is>
-          <t>127.7</t>
-        </is>
-      </c>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr"/>
-      <c r="H2919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr"/>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr"/>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>New Yuan LoansJAN</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr"/>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr"/>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr"/>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr"/>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr"/>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr"/>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr"/>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr"/>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>10.5%</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr"/>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr"/>
-      <c r="C2926" t="inlineStr"/>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr"/>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr"/>
-      <c r="H2926" t="inlineStr"/>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr"/>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr"/>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>7.60%</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr"/>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>Auto Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr"/>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr"/>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>Auto Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr"/>
-      <c r="H2932" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2909"/>
+  <dimension ref="A1:H2888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90135,10 +90135,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90169,10 +90167,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90195,10 +90191,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2824">
@@ -90229,10 +90223,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90263,10 +90255,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -90301,10 +90291,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2827">
@@ -90339,10 +90327,8 @@
           <t>50K</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -90373,10 +90359,8 @@
           <t>-10K</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -90407,10 +90391,8 @@
           <t>40K</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2830">
@@ -90441,10 +90423,8 @@
           <t>65.0%</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2831">
@@ -90475,10 +90455,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -90513,10 +90491,8 @@
           <t>205K</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2833">
@@ -90551,10 +90527,8 @@
           <t>4.1%</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2834">
@@ -90589,10 +90563,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2835">
@@ -90627,10 +90599,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -90661,10 +90631,8 @@
           <t>62.5%</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2837">
@@ -90699,10 +90667,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -90733,10 +90699,8 @@
           <t>25K</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -90767,10 +90731,8 @@
           <t>-5K</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -90805,10 +90767,8 @@
           <t>180K</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -90839,10 +90799,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -90873,10 +90831,8 @@
           <t>$607.0B</t>
         </is>
       </c>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -90899,10 +90855,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2844">
@@ -90929,10 +90883,8 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -90963,10 +90915,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -91001,10 +90951,8 @@
           <t>72</t>
         </is>
       </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2847">
@@ -91035,10 +90983,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -91069,10 +91015,8 @@
           <t>69.5</t>
         </is>
       </c>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -91103,10 +91047,8 @@
           <t>74.3</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -91137,10 +91079,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -91175,10 +91115,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -91201,10 +91139,8 @@
       <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -91235,10 +91171,8 @@
           <t>$4.1B</t>
         </is>
       </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2854">
@@ -91261,10 +91195,8 @@
       <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -91287,10 +91219,8 @@
       <c r="E2855" t="inlineStr"/>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -91321,10 +91251,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -91355,10 +91283,8 @@
           <t>$ 18B</t>
         </is>
       </c>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -91389,10 +91315,8 @@
           <t>$3.3T</t>
         </is>
       </c>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -91415,10 +91339,8 @@
           <t>116</t>
         </is>
       </c>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -91445,10 +91367,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -91471,10 +91391,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2862">
@@ -91497,10 +91415,8 @@
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2863">
@@ -91545,10 +91461,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2865">
@@ -91579,10 +91493,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2866">
@@ -91613,10 +91525,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2867">
@@ -91661,10 +91571,8 @@
           <t>¥ 1840B</t>
         </is>
       </c>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2869">
@@ -91695,10 +91603,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2870">
@@ -91725,10 +91631,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2871">
@@ -91751,10 +91655,8 @@
       <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -91777,48 +91679,50 @@
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2873">
-      <c r="A2873" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2873" t="inlineStr"/>
-      <c r="C2873" t="inlineStr"/>
+      <c r="A2873" t="inlineStr"/>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>Outstanding Loan Growth YoYJAN</t>
+        </is>
+      </c>
       <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr"/>
+      <c r="E2873" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr"/>
+      <c r="H2873" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2874">
-      <c r="A2874" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2874" t="inlineStr"/>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
+          <t>Total Social FinancingJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
+      <c r="E2874" t="inlineStr"/>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
       <c r="H2874" t="inlineStr">
@@ -91828,25 +91732,21 @@
       </c>
     </row>
     <row r="2875">
-      <c r="A2875" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2875" t="inlineStr"/>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
@@ -91860,93 +91760,69 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2876" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2876" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
+          <t>Tuesday February 11 2025</t>
+        </is>
+      </c>
+      <c r="B2876" t="inlineStr"/>
+      <c r="C2876" t="inlineStr"/>
       <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
+      <c r="E2876" t="inlineStr"/>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2876" t="inlineStr"/>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E2877" t="inlineStr"/>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
+      <c r="G2877" t="inlineStr"/>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>8.6%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>8.50%</t>
+          <t>7.60%</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
@@ -91968,19 +91844,19 @@
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
@@ -92002,19 +91878,19 @@
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>16.4%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>54.6%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
@@ -92026,31 +91902,27 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Auto Exports YoYJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>2.493%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="G2881" t="inlineStr"/>
       <c r="H2881" t="inlineStr">
         <is>
           <t>3</t>
@@ -92060,31 +91932,27 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Auto Production YoYJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.485%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G2882" t="inlineStr"/>
       <c r="H2882" t="inlineStr">
         <is>
           <t>3</t>
@@ -92094,17 +91962,17 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
@@ -92120,23 +91988,31 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr"/>
+      <c r="E2884" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H2884" t="inlineStr">
         <is>
           <t>3</t>
@@ -92146,23 +92022,31 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr"/>
+      <c r="E2885" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
+      <c r="G2885" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="H2885" t="inlineStr">
         <is>
           <t>3</t>
@@ -92172,17 +92056,17 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>BoC Market Participants Survey</t>
+          <t>NFIB Business Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
@@ -92191,30 +92075,26 @@
       <c r="G2886" t="inlineStr"/>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
+      <c r="A2887" t="inlineStr"/>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
@@ -92226,596 +92106,26 @@
       </c>
     </row>
     <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
+      <c r="A2888" t="inlineStr"/>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Auto Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr"/>
+      <c r="E2888" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
       <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2889" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2889" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr"/>
-      <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2890" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2890" t="inlineStr">
-        <is>
-          <t>Westpac Consumer Confidence ChangeFEB</t>
-        </is>
-      </c>
-      <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr"/>
-      <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2891" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2891" t="inlineStr">
-        <is>
-          <t>Westpac Consumer Confidence IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr"/>
-      <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>07:01 PM</t>
-        </is>
-      </c>
-      <c r="B2892" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2892" t="inlineStr">
-        <is>
-          <t>BRC Retail Sales Monitor YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr"/>
-      <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2893" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2893" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2894" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2894" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>127.7</t>
-        </is>
-      </c>
-      <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2895">
-      <c r="A2895" t="inlineStr"/>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2896">
-      <c r="A2896" t="inlineStr"/>
-      <c r="B2896" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2896" t="inlineStr">
-        <is>
-          <t>New Yuan LoansJAN</t>
-        </is>
-      </c>
-      <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr"/>
-      <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2897">
-      <c r="A2897" t="inlineStr"/>
-      <c r="B2897" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2897" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2898">
-      <c r="A2898" t="inlineStr"/>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr"/>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr"/>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr"/>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr">
-        <is>
-          <t>10.5%</t>
-        </is>
-      </c>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr"/>
-      <c r="C2901" t="inlineStr"/>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr"/>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
-      <c r="H2901" t="inlineStr"/>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr"/>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr">
-        <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr">
-        <is>
-          <t>7.60%</t>
-        </is>
-      </c>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>2.493%</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr"/>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>2.485%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr"/>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr"/>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Auto Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr"/>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr"/>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>Auto Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr"/>
-      <c r="H2909" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2888"/>
+  <dimension ref="A1:H2892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91422,265 +91422,269 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2863" t="inlineStr"/>
-      <c r="C2863" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2863" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr"/>
+      <c r="H2863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2864" t="n">
-        <v>1</v>
+      <c r="G2864" t="inlineStr"/>
+      <c r="H2864" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Westpac Consumer Confidence ChangeFEB</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E2865" t="inlineStr"/>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2865" t="n">
-        <v>2</v>
+      <c r="G2865" t="inlineStr"/>
+      <c r="H2865" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Westpac Consumer Confidence IndexFEB</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="E2866" t="inlineStr"/>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2866" t="n">
-        <v>2</v>
+      <c r="G2866" t="inlineStr"/>
+      <c r="H2866" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2867" t="inlineStr"/>
-      <c r="C2867" t="inlineStr"/>
+          <t>07:01 PM</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>BRC Retail Sales Monitor YoYJAN</t>
+        </is>
+      </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr"/>
+      <c r="H2867" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>NAB Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>¥3352.5B</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
-      <c r="H2868" t="n">
-        <v>2</v>
+      <c r="G2868" t="inlineStr"/>
+      <c r="H2868" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Bank Lending YoYJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>127.7</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2869" t="n">
-        <v>3</v>
+      <c r="G2869" t="inlineStr"/>
+      <c r="H2869" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2870">
-      <c r="A2870" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2870" t="inlineStr"/>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr"/>
+      <c r="E2870" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2870" t="n">
-        <v>3</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H2870" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2871">
-      <c r="A2871" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2871" t="inlineStr"/>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalDEC</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="n">
-        <v>3</v>
+      <c r="H2871" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr"/>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYJAN</t>
+          <t>M2 Money Supply YoYJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>-5.5%</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="n">
-        <v>3</v>
+      <c r="H2872" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2873">
@@ -92080,52 +92084,188 @@
       </c>
     </row>
     <row r="2887">
-      <c r="A2887" t="inlineStr"/>
+      <c r="A2887" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Auto Production YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
+      <c r="G2887" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2888">
-      <c r="A2888" t="inlineStr"/>
+      <c r="A2888" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Auto Sales YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
+          <t>4.83%</t>
+        </is>
+      </c>
+      <c r="F2888" t="inlineStr"/>
+      <c r="G2888" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="H2888" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2889" t="inlineStr">
+        <is>
+          <t>Industrial Production MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2889" t="inlineStr"/>
+      <c r="E2889" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2889" t="inlineStr"/>
+      <c r="G2889" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2889" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2890" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2890" t="inlineStr"/>
+      <c r="E2890" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="F2890" t="inlineStr"/>
+      <c r="G2890" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="H2890" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="inlineStr"/>
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2891" t="inlineStr">
+        <is>
+          <t>Auto Production YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2891" t="inlineStr"/>
+      <c r="E2891" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F2891" t="inlineStr"/>
+      <c r="G2891" t="inlineStr"/>
+      <c r="H2891" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="inlineStr"/>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2892" t="inlineStr">
+        <is>
+          <t>Auto Sales YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2892" t="inlineStr"/>
+      <c r="E2892" t="inlineStr">
+        <is>
           <t>7.3%</t>
         </is>
       </c>
-      <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
+      <c r="F2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr"/>
+      <c r="H2892" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2892"/>
+  <dimension ref="A1:H2919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88408,541 +88408,575 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2763" t="inlineStr"/>
-      <c r="C2763" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2763" t="inlineStr">
+        <is>
+          <t>BoE MPC Vote Unchanged</t>
+        </is>
+      </c>
       <c r="D2763" t="inlineStr"/>
-      <c r="E2763" t="inlineStr"/>
-      <c r="F2763" t="inlineStr"/>
+      <c r="E2763" t="inlineStr">
+        <is>
+          <t>6/9</t>
+        </is>
+      </c>
+      <c r="F2763" t="inlineStr">
+        <is>
+          <t>2/9</t>
+        </is>
+      </c>
       <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr"/>
+      <c r="H2763" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Challenger Job CutsJAN</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
-      <c r="F2764" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>38.792K</t>
+        </is>
+      </c>
+      <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2764" t="n">
-        <v>2</v>
+          <t>45K</t>
+        </is>
+      </c>
+      <c r="H2764" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Initial Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="F2765" t="inlineStr"/>
+          <t>207K</t>
+        </is>
+      </c>
+      <c r="F2765" t="inlineStr">
+        <is>
+          <t>214K</t>
+        </is>
+      </c>
       <c r="G2765" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H2765" t="n">
-        <v>3</v>
+          <t>215.0K</t>
+        </is>
+      </c>
+      <c r="H2765" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Nonfarm Productivity QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>42.6</t>
-        </is>
-      </c>
-      <c r="F2766" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F2766" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H2766" t="n">
-        <v>3</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2766" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Unit Labour Costs QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>37.8</t>
-        </is>
-      </c>
-      <c r="F2767" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2767" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="G2767" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="H2767" t="n">
-        <v>2</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H2767" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Continuing Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>1858K</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H2768" t="n">
-        <v>3</v>
+          <t>1855.0K</t>
+        </is>
+      </c>
+      <c r="H2768" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/01</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2769" t="inlineStr">
-        <is>
-          <t>53.7</t>
-        </is>
-      </c>
+          <t>212.5K</t>
+        </is>
+      </c>
+      <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="H2769" t="n">
-        <v>2</v>
+          <t>215.5K</t>
+        </is>
+      </c>
+      <c r="H2769" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Obligacion Auction</t>
+          <t>BoE Bailey Speech</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>1.212%</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="n">
-        <v>3</v>
+      <c r="H2770" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>30-Year Obligacion Auction</t>
+          <t>Ivey PMI s.aJAN</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
       <c r="E2771" t="inlineStr">
         <is>
-          <t>3.877%</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="F2771" t="inlineStr"/>
-      <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="n">
-        <v>3</v>
+      <c r="G2771" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="H2771" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>3-Year Bonos Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
       <c r="E2772" t="inlineStr">
         <is>
-          <t>2.586%</t>
+          <t>-321Bcf</t>
         </is>
       </c>
       <c r="F2772" t="inlineStr"/>
       <c r="G2772" t="inlineStr"/>
-      <c r="H2772" t="n">
-        <v>3</v>
+      <c r="H2772" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>11:15 AM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>7-Year Obligacion Auction</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>2.768%</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="n">
-        <v>3</v>
+      <c r="H2773" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
       <c r="E2774" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2774" t="n">
-        <v>2</v>
+          <t>4.250%</t>
+        </is>
+      </c>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
+      <c r="H2774" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F2775" t="inlineStr"/>
-      <c r="G2775" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2775" t="n">
-        <v>2</v>
+      <c r="G2775" t="inlineStr"/>
+      <c r="H2775" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>10-Year OAT Auction</t>
+          <t>10-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>3.40%</t>
+          <t>3.358%</t>
         </is>
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="n">
-        <v>3</v>
+      <c r="H2776" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>11-Year OAT Auction</t>
+          <t>Bundesbank Balz Speech</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
-      <c r="E2777" t="inlineStr">
-        <is>
-          <t>3.49%</t>
-        </is>
-      </c>
+      <c r="E2777" t="inlineStr"/>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="n">
-        <v>3</v>
+      <c r="H2777" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>13-Year OAT Auction</t>
+          <t>15-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>3.10%</t>
+          <t>6.12%</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="n">
-        <v>3</v>
+      <c r="H2778" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>30-Year OAT Auction</t>
+          <t>30-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>6.95%</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="n">
-        <v>3</v>
+      <c r="H2779" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
-      <c r="E2780" t="inlineStr">
-        <is>
-          <t>$99.33B</t>
-        </is>
-      </c>
+      <c r="E2780" t="inlineStr"/>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="n">
-        <v>3</v>
+      <c r="H2780" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
@@ -88952,605 +88986,605 @@
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="H2781" t="n">
-        <v>2</v>
+          <t>9.75%</t>
+        </is>
+      </c>
+      <c r="H2781" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>BoE Interest Rate Decision</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
-      <c r="E2782" t="inlineStr">
-        <is>
-          <t>4.75%</t>
-        </is>
-      </c>
-      <c r="F2782" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2782" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H2782" t="n">
-        <v>1</v>
+      <c r="E2782" t="inlineStr"/>
+      <c r="F2782" t="inlineStr"/>
+      <c r="G2782" t="inlineStr"/>
+      <c r="H2782" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>BoE Monetary Policy Report</t>
+          <t>Fed Balance SheetFEB/05</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
-      <c r="E2783" t="inlineStr"/>
+      <c r="E2783" t="inlineStr">
+        <is>
+          <t>$6.82T</t>
+        </is>
+      </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="n">
-        <v>2</v>
+      <c r="H2783" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>BoE MPC Meeting Minutes</t>
+          <t>Household Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr"/>
-      <c r="F2784" t="inlineStr"/>
-      <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="n">
-        <v>2</v>
+      <c r="E2784" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2784" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G2784" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2784" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Cut</t>
+          <t>Household Spending YoYDEC</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>3/9</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr">
         <is>
-          <t>7/9</t>
-        </is>
-      </c>
-      <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H2785" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Hike</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>0/9</t>
-        </is>
-      </c>
-      <c r="F2786" t="inlineStr">
-        <is>
-          <t>0/9</t>
-        </is>
-      </c>
+          <t>$155.7B</t>
+        </is>
+      </c>
+      <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="n">
-        <v>2</v>
+      <c r="H2786" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Unchanged</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>6/9</t>
-        </is>
-      </c>
-      <c r="F2787" t="inlineStr">
-        <is>
-          <t>2/9</t>
-        </is>
-      </c>
+          <t>0.3248%</t>
+        </is>
+      </c>
+      <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="n">
-        <v>2</v>
+      <c r="H2787" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Challenger Job CutsJAN</t>
+          <t>RBI Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>38.792K</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
+          <t>6.5%</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>6.25%</t>
+        </is>
+      </c>
       <c r="G2788" t="inlineStr">
         <is>
-          <t>45K</t>
-        </is>
-      </c>
-      <c r="H2788" t="n">
-        <v>3</v>
+          <t>6.25%</t>
+        </is>
+      </c>
+      <c r="H2788" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/01</t>
+          <t>Cash Reserve Ratio</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
       <c r="E2789" t="inlineStr">
         <is>
-          <t>207K</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="F2789" t="inlineStr">
         <is>
-          <t>214K</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="G2789" t="inlineStr">
         <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="H2789" t="n">
-        <v>2</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H2789" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2790">
-      <c r="A2790" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2790" t="inlineStr"/>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Nonfarm Productivity QoQ PrelQ4</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F2790" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+          <t>-7.1%</t>
+        </is>
+      </c>
+      <c r="F2790" t="inlineStr"/>
       <c r="G2790" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H2790" t="n">
-        <v>2</v>
+          <t>-5.0%</t>
+        </is>
+      </c>
+      <c r="H2790" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2791">
-      <c r="A2791" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2791" t="inlineStr"/>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Unit Labour Costs QoQ PrelQ4</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2791" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="G2791" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H2791" t="n">
-        <v>2</v>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="F2791" t="inlineStr"/>
+      <c r="G2791" t="inlineStr"/>
+      <c r="H2791" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2792">
-      <c r="A2792" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2792" t="inlineStr"/>
       <c r="B2792" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/25</t>
+          <t>Global Supply Chain Pressure IndexJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
       <c r="E2792" t="inlineStr">
         <is>
-          <t>1858K</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="F2792" t="inlineStr"/>
-      <c r="G2792" t="inlineStr">
-        <is>
-          <t>1855.0K</t>
-        </is>
-      </c>
-      <c r="H2792" t="n">
-        <v>3</v>
+      <c r="G2792" t="inlineStr"/>
+      <c r="H2792" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2793">
-      <c r="A2793" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2793" t="inlineStr"/>
       <c r="B2793" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/01</t>
+          <t>10-Year NTN-F Auction</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
       <c r="E2793" t="inlineStr">
         <is>
-          <t>212.5K</t>
+          <t>15.194%</t>
         </is>
       </c>
       <c r="F2793" t="inlineStr"/>
-      <c r="G2793" t="inlineStr">
-        <is>
-          <t>215.5K</t>
-        </is>
-      </c>
-      <c r="H2793" t="n">
-        <v>3</v>
+      <c r="G2793" t="inlineStr"/>
+      <c r="H2793" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2794">
-      <c r="A2794" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
+      <c r="A2794" t="inlineStr"/>
       <c r="B2794" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>BoE Bailey Speech</t>
+          <t>2-Year LTN Auction</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
-      <c r="E2794" t="inlineStr"/>
+      <c r="E2794" t="inlineStr">
+        <is>
+          <t>15.152%</t>
+        </is>
+      </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="n">
-        <v>2</v>
+      <c r="H2794" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2795">
-      <c r="A2795" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2795" t="inlineStr"/>
       <c r="B2795" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aJAN</t>
+          <t>6-Month LTN Auction</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
       <c r="E2795" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>14.5579%</t>
         </is>
       </c>
       <c r="F2795" t="inlineStr"/>
-      <c r="G2795" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="H2795" t="n">
-        <v>1</v>
+      <c r="G2795" t="inlineStr"/>
+      <c r="H2795" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2796">
-      <c r="A2796" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2796" t="inlineStr"/>
       <c r="B2796" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
       <c r="E2796" t="inlineStr">
         <is>
-          <t>-321Bcf</t>
+          <t>$1230.7B</t>
         </is>
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="n">
-        <v>3</v>
+      <c r="H2796" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>11:15 AM</t>
-        </is>
-      </c>
-      <c r="B2797" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2797" t="inlineStr">
-        <is>
-          <t>Bundesbank Nagel Speech</t>
-        </is>
-      </c>
+          <t>Friday February 07 2025</t>
+        </is>
+      </c>
+      <c r="B2797" t="inlineStr"/>
+      <c r="C2797" t="inlineStr"/>
       <c r="D2797" t="inlineStr"/>
       <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="n">
-        <v>3</v>
-      </c>
+      <c r="H2797" t="inlineStr"/>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Coincident Index PrelDEC</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
       <c r="E2798" t="inlineStr">
         <is>
-          <t>4.250%</t>
+          <t>115.4</t>
         </is>
       </c>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="n">
-        <v>3</v>
+      <c r="G2798" t="inlineStr">
+        <is>
+          <t>115.9</t>
+        </is>
+      </c>
+      <c r="H2798" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Leading Economic Index PrelDEC</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
       <c r="E2799" t="inlineStr">
         <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="F2799" t="inlineStr"/>
-      <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="n">
-        <v>3</v>
+          <t>107.5</t>
+        </is>
+      </c>
+      <c r="F2799" t="inlineStr">
+        <is>
+          <t>108.1</t>
+        </is>
+      </c>
+      <c r="G2799" t="inlineStr">
+        <is>
+          <t>108.2</t>
+        </is>
+      </c>
+      <c r="H2799" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>10-Year Bond Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
       <c r="E2800" t="inlineStr">
         <is>
-          <t>3.358%</t>
+          <t>$65.46B</t>
         </is>
       </c>
       <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="n">
-        <v>3</v>
+      <c r="G2800" t="inlineStr">
+        <is>
+          <t>$65.0B</t>
+        </is>
+      </c>
+      <c r="H2800" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
@@ -89560,551 +89594,635 @@
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>Bundesbank Balz Speech</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr"/>
+      <c r="E2801" t="inlineStr">
+        <is>
+          <t>€19.7B</t>
+        </is>
+      </c>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="n">
-        <v>3</v>
+      <c r="G2801" t="inlineStr">
+        <is>
+          <t>€ 22B</t>
+        </is>
+      </c>
+      <c r="H2801" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/06</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
       <c r="E2802" t="inlineStr">
         <is>
-          <t>6.12%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="n">
-        <v>3</v>
+      <c r="H2802" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/06</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
       <c r="E2803" t="inlineStr">
         <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="F2803" t="inlineStr"/>
-      <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="n">
-        <v>3</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2803" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G2803" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="H2803" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr"/>
+      <c r="E2804" t="inlineStr">
+        <is>
+          <t>-3.3%</t>
+        </is>
+      </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="n">
-        <v>2</v>
+      <c r="H2804" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Halifax House Price Index MoMJAN</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
       <c r="E2805" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr">
         <is>
-          <t>9.75%</t>
-        </is>
-      </c>
-      <c r="H2805" t="n">
-        <v>2</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2805" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Halifax House Price Index YoYJAN</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="n">
-        <v>2</v>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="H2806" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Inflation Report</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr">
-        <is>
-          <t>$6.82T</t>
-        </is>
-      </c>
+      <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="n">
-        <v>3</v>
+      <c r="H2807" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
       <c r="E2808" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2808" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>€-7.1B</t>
+        </is>
+      </c>
+      <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2808" t="n">
-        <v>2</v>
+          <t>€ -7.2B</t>
+        </is>
+      </c>
+      <c r="H2808" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
       <c r="E2809" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2809" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>€-1.7B</t>
+        </is>
+      </c>
+      <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2809" t="n">
-        <v>2</v>
+          <t>€ -2.5B</t>
+        </is>
+      </c>
+      <c r="H2809" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
       <c r="E2810" t="inlineStr">
         <is>
-          <t>$155.7B</t>
+          <t>€50.101B</t>
         </is>
       </c>
       <c r="F2810" t="inlineStr"/>
-      <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="n">
-        <v>3</v>
+      <c r="G2810" t="inlineStr">
+        <is>
+          <t>€ 49.7B</t>
+        </is>
+      </c>
+      <c r="H2810" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
       <c r="E2811" t="inlineStr">
         <is>
-          <t>0.3248%</t>
+          <t>€275.078B</t>
         </is>
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="n">
-        <v>3</v>
+      <c r="H2811" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2812">
       <c r="A2812" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2812" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="F2812" t="inlineStr">
-        <is>
-          <t>6.25%</t>
-        </is>
-      </c>
+          <t>€57.186B</t>
+        </is>
+      </c>
+      <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr">
         <is>
-          <t>6.25%</t>
-        </is>
-      </c>
-      <c r="H2812" t="n">
-        <v>1</v>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2812" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2813" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2813" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2813" t="inlineStr"/>
       <c r="E2813" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="F2813" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H2813" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2813" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2814">
-      <c r="A2814" t="inlineStr"/>
+      <c r="A2814" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>-7.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr">
         <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="H2814" t="n">
-        <v>3</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H2814" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2815">
-      <c r="A2815" t="inlineStr"/>
+      <c r="A2815" t="inlineStr">
+        <is>
+          <t>03:45 AM</t>
+        </is>
+      </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYJAN</t>
+          <t>ECB Guindos Speech</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
-      <c r="E2815" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="E2815" t="inlineStr"/>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="n">
-        <v>3</v>
+      <c r="H2815" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2816">
-      <c r="A2816" t="inlineStr"/>
+      <c r="A2816" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>Global Supply Chain Pressure IndexJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
       <c r="E2816" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>S$506.7B</t>
         </is>
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="n">
-        <v>3</v>
+      <c r="H2816" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2817">
-      <c r="A2817" t="inlineStr"/>
+      <c r="A2817" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>10-Year NTN-F Auction</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr">
         <is>
-          <t>15.194%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="n">
-        <v>3</v>
+      <c r="H2817" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2818">
-      <c r="A2818" t="inlineStr"/>
+      <c r="A2818" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>2-Year LTN Auction</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
       <c r="E2818" t="inlineStr">
         <is>
-          <t>15.152%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2818" t="inlineStr"/>
-      <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="n">
-        <v>3</v>
+      <c r="G2818" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H2818" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2819">
-      <c r="A2819" t="inlineStr"/>
+      <c r="A2819" t="inlineStr">
+        <is>
+          <t>06:30 AM</t>
+        </is>
+      </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>6-Month LTN Auction</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
       <c r="E2819" t="inlineStr">
         <is>
-          <t>14.5579%</t>
+          <t>$629.56B</t>
         </is>
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="n">
-        <v>3</v>
+      <c r="H2819" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2820">
-      <c r="A2820" t="inlineStr"/>
+      <c r="A2820" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
       <c r="E2820" t="inlineStr">
         <is>
-          <t>$1230.7B</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2820" t="inlineStr"/>
-      <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="n">
-        <v>3</v>
+      <c r="G2820" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2820" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2821">
@@ -90120,23 +90238,25 @@
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
       <c r="E2821" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2821" t="n">
-        <v>3</v>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H2821" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2822">
@@ -90152,79 +90272,85 @@
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
       <c r="E2822" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2822" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2822" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>BoE Pill Speech</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
       <c r="F2823" t="inlineStr"/>
-      <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="n">
-        <v>2</v>
+      <c r="G2823" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="H2823" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>BoE Pill Speech</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr">
-        <is>
-          <t>-19.5%</t>
-        </is>
-      </c>
+      <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
-      <c r="G2824" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="H2824" t="n">
-        <v>3</v>
+      <c r="G2824" t="inlineStr"/>
+      <c r="H2824" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2825">
@@ -90240,59 +90366,59 @@
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
       <c r="E2825" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr">
         <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
-      <c r="H2825" t="n">
-        <v>3</v>
+          <t>-5.0%</t>
+        </is>
+      </c>
+      <c r="H2825" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
       <c r="E2826" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2826" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr">
         <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="H2826" t="n">
-        <v>1</v>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="H2826" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2827">
@@ -90308,27 +90434,29 @@
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
       <c r="E2827" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2827" t="inlineStr">
         <is>
-          <t>48.5K</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="G2827" t="inlineStr">
         <is>
-          <t>50K</t>
-        </is>
-      </c>
-      <c r="H2827" t="n">
-        <v>2</v>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="H2827" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2828">
@@ -90344,23 +90472,29 @@
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
       <c r="E2828" t="inlineStr">
         <is>
-          <t>57.5K</t>
-        </is>
-      </c>
-      <c r="F2828" t="inlineStr"/>
+          <t>90.9K</t>
+        </is>
+      </c>
+      <c r="F2828" t="inlineStr">
+        <is>
+          <t>48.5K</t>
+        </is>
+      </c>
       <c r="G2828" t="inlineStr">
         <is>
-          <t>-10K</t>
-        </is>
-      </c>
-      <c r="H2828" t="n">
-        <v>2</v>
+          <t>50K</t>
+        </is>
+      </c>
+      <c r="H2828" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2829">
@@ -90376,23 +90510,25 @@
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr">
         <is>
-          <t>40K</t>
-        </is>
-      </c>
-      <c r="H2829" t="n">
-        <v>2</v>
+          <t>-10K</t>
+        </is>
+      </c>
+      <c r="H2829" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2830">
@@ -90408,23 +90544,25 @@
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
       <c r="E2830" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr">
         <is>
-          <t>65.0%</t>
-        </is>
-      </c>
-      <c r="H2830" t="n">
-        <v>2</v>
+          <t>40K</t>
+        </is>
+      </c>
+      <c r="H2830" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2831">
@@ -90440,23 +90578,25 @@
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
       <c r="E2831" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2831" t="n">
-        <v>3</v>
+          <t>65.0%</t>
+        </is>
+      </c>
+      <c r="H2831" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2832">
@@ -90467,32 +90607,30 @@
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
       <c r="E2832" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="F2832" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr">
         <is>
-          <t>205K</t>
-        </is>
-      </c>
-      <c r="H2832" t="n">
-        <v>1</v>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="H2832" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2833">
@@ -90508,27 +90646,29 @@
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
       <c r="E2833" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2833" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>170K</t>
         </is>
       </c>
       <c r="G2833" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="H2833" t="n">
-        <v>1</v>
+          <t>205K</t>
+        </is>
+      </c>
+      <c r="H2833" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2834">
@@ -90544,27 +90684,29 @@
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G2834" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2834" t="n">
-        <v>2</v>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="H2834" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2835">
@@ -90580,27 +90722,29 @@
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2835" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G2835" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2835" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2835" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2836">
@@ -90616,23 +90760,29 @@
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="F2836" t="inlineStr"/>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F2836" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="G2836" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2836" t="n">
-        <v>2</v>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="H2836" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2837">
@@ -90648,27 +90798,25 @@
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F2837" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="H2837" t="n">
-        <v>3</v>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="H2837" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2838">
@@ -90684,23 +90832,29 @@
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>33K</t>
-        </is>
-      </c>
-      <c r="F2838" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F2838" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G2838" t="inlineStr">
         <is>
-          <t>25K</t>
-        </is>
-      </c>
-      <c r="H2838" t="n">
-        <v>3</v>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="H2838" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2839">
@@ -90716,23 +90870,25 @@
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr">
         <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2839" t="n">
-        <v>3</v>
+          <t>25K</t>
+        </is>
+      </c>
+      <c r="H2839" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2840">
@@ -90748,27 +90904,25 @@
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2840" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>-13K</t>
+        </is>
+      </c>
+      <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr">
         <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2840" t="n">
-        <v>3</v>
+          <t>-5K</t>
+        </is>
+      </c>
+      <c r="H2840" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2841">
@@ -90784,139 +90938,153 @@
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2841" t="inlineStr"/>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="F2841" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G2841" t="inlineStr">
         <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2841" t="n">
-        <v>3</v>
+          <t>180K</t>
+        </is>
+      </c>
+      <c r="H2841" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
       <c r="E2842" t="inlineStr">
         <is>
-          <t>$609.1B</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr">
         <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2842" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H2842" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr"/>
+      <c r="E2843" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2843" t="inlineStr"/>
-      <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="n">
-        <v>2</v>
+      <c r="G2843" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
+      <c r="H2843" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
+      <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="n">
-        <v>3</v>
+      <c r="H2844" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2845" t="n">
-        <v>3</v>
+      <c r="G2845" t="inlineStr"/>
+      <c r="H2845" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2846">
@@ -90927,32 +91095,30 @@
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2846" t="inlineStr">
-        <is>
-          <t>71.8</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2846" t="n">
-        <v>1</v>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="H2846" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2847">
@@ -90968,23 +91134,29 @@
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2847" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="F2847" t="inlineStr">
+        <is>
+          <t>71.8</t>
+        </is>
+      </c>
       <c r="G2847" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2847" t="n">
-        <v>3</v>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H2847" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2848">
@@ -91000,23 +91172,25 @@
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr">
         <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2848" t="n">
-        <v>3</v>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H2848" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2849">
@@ -91032,23 +91206,25 @@
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr">
         <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2849" t="n">
-        <v>3</v>
+          <t>69.5</t>
+        </is>
+      </c>
+      <c r="H2849" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2850">
@@ -91064,23 +91240,25 @@
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2850" t="n">
-        <v>3</v>
+          <t>74.3</t>
+        </is>
+      </c>
+      <c r="H2850" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2851">
@@ -91096,33 +91274,31 @@
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2851" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2851" t="n">
-        <v>3</v>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="H2851" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
@@ -91132,47 +91308,55 @@
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr"/>
-      <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="n">
-        <v>2</v>
+      <c r="E2852" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2852" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G2852" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H2852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
+      <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2853" t="n">
-        <v>2</v>
+      <c r="G2853" t="inlineStr"/>
+      <c r="H2853" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2854">
@@ -91183,20 +91367,30 @@
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr"/>
+      <c r="E2854" t="inlineStr">
+        <is>
+          <t>$4.8B</t>
+        </is>
+      </c>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="n">
-        <v>3</v>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>$4.1B</t>
+        </is>
+      </c>
+      <c r="H2854" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2855">
@@ -91212,135 +91406,145 @@
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr"/>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="n">
-        <v>3</v>
+      <c r="H2855" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
-      <c r="E2856" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
+      <c r="E2856" t="inlineStr"/>
       <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2856" t="n">
-        <v>3</v>
+      <c r="G2856" t="inlineStr"/>
+      <c r="H2856" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2857" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H2857" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2858">
-      <c r="A2858" t="inlineStr"/>
+      <c r="A2858" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2858" t="inlineStr">
-        <is>
-          <t>$3.2T</t>
-        </is>
-      </c>
+          <t>$-7.49B</t>
+        </is>
+      </c>
+      <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2858" t="n">
-        <v>3</v>
+          <t>$ 18B</t>
+        </is>
+      </c>
+      <c r="H2858" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr"/>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
-      <c r="E2859" t="inlineStr"/>
-      <c r="F2859" t="inlineStr"/>
+      <c r="E2859" t="inlineStr">
+        <is>
+          <t>$3.202T</t>
+        </is>
+      </c>
+      <c r="F2859" t="inlineStr">
+        <is>
+          <t>$3.2T</t>
+        </is>
+      </c>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2859" t="n">
-        <v>3</v>
+          <t>$3.3T</t>
+        </is>
+      </c>
+      <c r="H2859" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2860">
@@ -91352,47 +91556,51 @@
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceDEC</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
-      <c r="E2860" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
+      <c r="E2860" t="inlineStr"/>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H2860" t="n">
-        <v>3</v>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H2860" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2861">
       <c r="A2861" t="inlineStr"/>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="n">
-        <v>3</v>
+      <c r="G2861" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H2861" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2862">
@@ -91404,27 +91612,25 @@
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="n">
-        <v>3</v>
+      <c r="H2862" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2863">
-      <c r="A2863" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
+      <c r="A2863" t="inlineStr"/>
       <c r="B2863" t="inlineStr">
         <is>
           <t>US</t>
@@ -91432,11 +91638,15 @@
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr"/>
+      <c r="E2863" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
       <c r="H2863" t="inlineStr">
@@ -91448,49 +91658,45 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2864" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2864" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2864" t="inlineStr"/>
+      <c r="C2864" t="inlineStr"/>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2864" t="inlineStr"/>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeFEB</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr"/>
+      <c r="E2865" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
+      <c r="G2865" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H2865" t="inlineStr">
         <is>
           <t>1</t>
@@ -91500,49 +91706,65 @@
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexFEB</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr"/>
+      <c r="E2866" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>BRC Retail Sales Monitor YoYJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr"/>
+      <c r="E2867" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
+      <c r="G2867" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="H2867" t="inlineStr">
         <is>
           <t>2</t>
@@ -91552,85 +91774,77 @@
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2868" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2868" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr"/>
+      <c r="C2868" t="inlineStr"/>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
+      <c r="E2868" t="inlineStr"/>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="H2868" t="inlineStr"/>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>127.7</t>
+          <t>¥3352.5B</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr"/>
+      <c r="G2869" t="inlineStr">
+        <is>
+          <t>¥ 1840B</t>
+        </is>
+      </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2870">
-      <c r="A2870" t="inlineStr"/>
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>06:50 PM</t>
+        </is>
+      </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
@@ -91640,21 +91854,29 @@
       </c>
     </row>
     <row r="2871">
-      <c r="A2871" t="inlineStr"/>
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>New Yuan LoansJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
+      <c r="G2871" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2871" t="inlineStr">
         <is>
           <t>3</t>
@@ -91662,23 +91884,23 @@
       </c>
     </row>
     <row r="2872">
-      <c r="A2872" t="inlineStr"/>
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYJAN</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
       <c r="H2872" t="inlineStr">
@@ -91691,18 +91913,18 @@
       <c r="A2873" t="inlineStr"/>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
@@ -91714,43 +91936,39 @@
       </c>
     </row>
     <row r="2874">
-      <c r="A2874" t="inlineStr"/>
-      <c r="B2874" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2874" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr"/>
+      <c r="C2874" t="inlineStr"/>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr"/>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2874" t="inlineStr"/>
     </row>
     <row r="2875">
-      <c r="A2875" t="inlineStr"/>
+      <c r="A2875" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYJAN</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>10.5%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
@@ -91764,16 +91982,32 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B2876" t="inlineStr"/>
-      <c r="C2876" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2876" t="inlineStr">
+        <is>
+          <t>Eco Watchers Survey OutlookJAN</t>
+        </is>
+      </c>
       <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr"/>
+      <c r="E2876" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr"/>
+      <c r="H2876" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
@@ -91783,16 +92017,20 @@
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr"/>
+      <c r="E2877" t="inlineStr">
+        <is>
+          <t>2.625%</t>
+        </is>
+      </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
       <c r="H2877" t="inlineStr">
@@ -91804,29 +92042,29 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>7.60%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
@@ -91848,24 +92086,24 @@
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -91882,19 +92120,19 @@
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>16.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
@@ -91906,27 +92144,31 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>2.493%</t>
+          <t>54.2%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr"/>
+      <c r="G2881" t="inlineStr">
+        <is>
+          <t>54.6%</t>
+        </is>
+      </c>
       <c r="H2881" t="inlineStr">
         <is>
           <t>3</t>
@@ -91936,27 +92178,31 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Auto Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>2.485%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
+      <c r="G2882" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="H2882" t="inlineStr">
         <is>
           <t>3</t>
@@ -91966,23 +92212,31 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr"/>
+      <c r="E2883" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H2883" t="inlineStr">
         <is>
           <t>3</t>
@@ -91992,31 +92246,23 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
+      <c r="E2884" t="inlineStr"/>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2884" t="inlineStr"/>
       <c r="H2884" t="inlineStr">
         <is>
           <t>3</t>
@@ -92026,31 +92272,23 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
+      <c r="E2885" t="inlineStr"/>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="G2885" t="inlineStr"/>
       <c r="H2885" t="inlineStr">
         <is>
           <t>3</t>
@@ -92060,17 +92298,17 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
@@ -92086,31 +92324,23 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>BoC Market Participants Survey</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2887" t="inlineStr"/>
       <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2887" t="inlineStr"/>
       <c r="H2887" t="inlineStr">
         <is>
           <t>2</t>
@@ -92120,65 +92350,53 @@
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2888" t="inlineStr"/>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2889" t="inlineStr"/>
       <c r="H2889" t="inlineStr">
         <is>
           <t>3</t>
@@ -92188,31 +92406,23 @@
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
+      <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G2890" t="inlineStr"/>
       <c r="H2890" t="inlineStr">
         <is>
           <t>3</t>
@@ -92220,52 +92430,830 @@
       </c>
     </row>
     <row r="2891">
-      <c r="A2891" t="inlineStr"/>
+      <c r="A2891" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Auto Production YoYJAN</t>
+          <t>Westpac Consumer Confidence ChangeFEB</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2891" t="inlineStr"/>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr"/>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2892">
-      <c r="A2892" t="inlineStr"/>
+      <c r="A2892" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Auto Sales YoYJAN</t>
+          <t>Westpac Consumer Confidence IndexFEB</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E2892" t="inlineStr"/>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr"/>
       <c r="H2892" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="inlineStr">
+        <is>
+          <t>07:01 PM</t>
+        </is>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2893" t="inlineStr">
+        <is>
+          <t>BRC Retail Sales Monitor YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2893" t="inlineStr"/>
+      <c r="E2893" t="inlineStr"/>
+      <c r="F2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr"/>
+      <c r="H2893" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2894" t="inlineStr">
+        <is>
+          <t>NAB Business ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D2894" t="inlineStr"/>
+      <c r="E2894" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="F2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr"/>
+      <c r="H2894" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C2895" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D2895" t="inlineStr"/>
+      <c r="E2895" t="inlineStr">
+        <is>
+          <t>127.7</t>
+        </is>
+      </c>
+      <c r="F2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr"/>
+      <c r="H2895" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="inlineStr"/>
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C2896" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2896" t="inlineStr"/>
+      <c r="E2896" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F2896" t="inlineStr"/>
+      <c r="G2896" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H2896" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="inlineStr"/>
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2897" t="inlineStr">
+        <is>
+          <t>New Yuan LoansJAN</t>
+        </is>
+      </c>
+      <c r="D2897" t="inlineStr"/>
+      <c r="E2897" t="inlineStr"/>
+      <c r="F2897" t="inlineStr"/>
+      <c r="G2897" t="inlineStr"/>
+      <c r="H2897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="inlineStr"/>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2898" t="inlineStr">
+        <is>
+          <t>M2 Money Supply YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2898" t="inlineStr"/>
+      <c r="E2898" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="F2898" t="inlineStr"/>
+      <c r="G2898" t="inlineStr"/>
+      <c r="H2898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="inlineStr"/>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2899" t="inlineStr">
+        <is>
+          <t>Outstanding Loan Growth YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2899" t="inlineStr"/>
+      <c r="E2899" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
+      <c r="F2899" t="inlineStr"/>
+      <c r="G2899" t="inlineStr"/>
+      <c r="H2899" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="inlineStr"/>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2900" t="inlineStr">
+        <is>
+          <t>Total Social FinancingJAN</t>
+        </is>
+      </c>
+      <c r="D2900" t="inlineStr"/>
+      <c r="E2900" t="inlineStr"/>
+      <c r="F2900" t="inlineStr"/>
+      <c r="G2900" t="inlineStr"/>
+      <c r="H2900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="inlineStr"/>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2901" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2901" t="inlineStr"/>
+      <c r="E2901" t="inlineStr">
+        <is>
+          <t>10.5%</t>
+        </is>
+      </c>
+      <c r="F2901" t="inlineStr"/>
+      <c r="G2901" t="inlineStr"/>
+      <c r="H2901" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="inlineStr">
+        <is>
+          <t>Tuesday February 11 2025</t>
+        </is>
+      </c>
+      <c r="B2902" t="inlineStr"/>
+      <c r="C2902" t="inlineStr"/>
+      <c r="D2902" t="inlineStr"/>
+      <c r="E2902" t="inlineStr"/>
+      <c r="F2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr"/>
+      <c r="H2902" t="inlineStr"/>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2903" t="inlineStr">
+        <is>
+          <t>MAS 4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2903" t="inlineStr"/>
+      <c r="E2903" t="inlineStr"/>
+      <c r="F2903" t="inlineStr"/>
+      <c r="G2903" t="inlineStr"/>
+      <c r="H2903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2904" t="inlineStr">
+        <is>
+          <t>Unemployment RateQ4</t>
+        </is>
+      </c>
+      <c r="D2904" t="inlineStr"/>
+      <c r="E2904" t="inlineStr">
+        <is>
+          <t>7.4%</t>
+        </is>
+      </c>
+      <c r="F2904" t="inlineStr"/>
+      <c r="G2904" t="inlineStr">
+        <is>
+          <t>7.60%</t>
+        </is>
+      </c>
+      <c r="H2904" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2905" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2905" t="inlineStr"/>
+      <c r="E2905" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="F2905" t="inlineStr"/>
+      <c r="G2905" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2906" t="inlineStr"/>
+      <c r="E2906" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="F2906" t="inlineStr"/>
+      <c r="G2906" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
+      <c r="H2906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>04:40 AM</t>
+        </is>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr">
+        <is>
+          <t>3-Month Letras Auction</t>
+        </is>
+      </c>
+      <c r="D2907" t="inlineStr"/>
+      <c r="E2907" t="inlineStr">
+        <is>
+          <t>2.493%</t>
+        </is>
+      </c>
+      <c r="F2907" t="inlineStr"/>
+      <c r="G2907" t="inlineStr"/>
+      <c r="H2907" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>04:40 AM</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr">
+        <is>
+          <t>9-Month Letras Auction</t>
+        </is>
+      </c>
+      <c r="D2908" t="inlineStr"/>
+      <c r="E2908" t="inlineStr">
+        <is>
+          <t>2.485%</t>
+        </is>
+      </c>
+      <c r="F2908" t="inlineStr"/>
+      <c r="G2908" t="inlineStr"/>
+      <c r="H2908" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr">
+        <is>
+          <t>5-Year Bobl Auction</t>
+        </is>
+      </c>
+      <c r="D2909" t="inlineStr"/>
+      <c r="E2909" t="inlineStr"/>
+      <c r="F2909" t="inlineStr"/>
+      <c r="G2909" t="inlineStr"/>
+      <c r="H2909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr">
+        <is>
+          <t>Manufacturing Production MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2910" t="inlineStr"/>
+      <c r="E2910" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="F2910" t="inlineStr"/>
+      <c r="G2910" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="H2910" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2911" t="inlineStr"/>
+      <c r="E2911" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
+      <c r="F2911" t="inlineStr"/>
+      <c r="G2911" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="H2911" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="D2912" t="inlineStr"/>
+      <c r="E2912" t="inlineStr"/>
+      <c r="F2912" t="inlineStr"/>
+      <c r="G2912" t="inlineStr"/>
+      <c r="H2912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
+      <c r="D2913" t="inlineStr"/>
+      <c r="E2913" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="F2913" t="inlineStr"/>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2913" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2914" t="inlineStr"/>
+      <c r="E2914" t="inlineStr">
+        <is>
+          <t>4.83%</t>
+        </is>
+      </c>
+      <c r="F2914" t="inlineStr"/>
+      <c r="G2914" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="H2914" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr">
+        <is>
+          <t>Industrial Production MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2915" t="inlineStr"/>
+      <c r="E2915" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2915" t="inlineStr"/>
+      <c r="G2915" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2916" t="inlineStr"/>
+      <c r="E2916" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="F2916" t="inlineStr"/>
+      <c r="G2916" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="H2916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D2917" t="inlineStr"/>
+      <c r="E2917" t="inlineStr"/>
+      <c r="F2917" t="inlineStr"/>
+      <c r="G2917" t="inlineStr">
+        <is>
+          <t>$ 10.7B</t>
+        </is>
+      </c>
+      <c r="H2917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="inlineStr"/>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr">
+        <is>
+          <t>Auto Production YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2918" t="inlineStr"/>
+      <c r="E2918" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F2918" t="inlineStr"/>
+      <c r="G2918" t="inlineStr"/>
+      <c r="H2918" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="inlineStr"/>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>Auto Sales YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2919" t="inlineStr"/>
+      <c r="E2919" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="F2919" t="inlineStr"/>
+      <c r="G2919" t="inlineStr"/>
+      <c r="H2919" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2919"/>
+  <dimension ref="A1:H2897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88433,10 +88433,8 @@
         </is>
       </c>
       <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -88467,10 +88465,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -88505,10 +88501,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2766">
@@ -88543,10 +88537,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -88581,10 +88573,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -88615,10 +88605,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -88649,10 +88637,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -88675,10 +88661,8 @@
       <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -88709,10 +88693,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2772">
@@ -88739,10 +88721,8 @@
       </c>
       <c r="F2772" t="inlineStr"/>
       <c r="G2772" t="inlineStr"/>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -88765,10 +88745,8 @@
       <c r="E2773" t="inlineStr"/>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -88795,10 +88773,8 @@
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -88825,10 +88801,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -88855,10 +88829,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -88881,10 +88853,8 @@
       <c r="E2777" t="inlineStr"/>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -88911,10 +88881,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -88941,10 +88909,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -88967,10 +88933,8 @@
       <c r="E2780" t="inlineStr"/>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2781">
@@ -89001,10 +88965,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -89027,10 +88989,8 @@
       <c r="E2782" t="inlineStr"/>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2783">
@@ -89057,10 +89017,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89095,10 +89053,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2785">
@@ -89133,10 +89089,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -89163,10 +89117,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89193,10 +89145,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89231,10 +89181,8 @@
           <t>6.25%</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2789">
@@ -89269,10 +89217,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -89299,10 +89245,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89325,10 +89269,8 @@
       </c>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89351,10 +89293,8 @@
       </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89377,10 +89317,8 @@
       </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89403,10 +89341,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -89429,10 +89365,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -89455,52 +89389,70 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2797" t="inlineStr"/>
-      <c r="C2797" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr"/>
+      <c r="E2797" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
       <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr"/>
+      <c r="G2797" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2797" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
       <c r="E2798" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2798" t="inlineStr">
@@ -89512,67 +89464,55 @@
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>BoE Pill Speech</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
-      <c r="F2799" t="inlineStr">
-        <is>
-          <t>108.1</t>
-        </is>
-      </c>
-      <c r="G2799" t="inlineStr">
-        <is>
-          <t>108.2</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
+      <c r="F2799" t="inlineStr"/>
+      <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
       <c r="E2800" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2800" t="inlineStr">
@@ -89584,97 +89524,105 @@
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
       <c r="E2801" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2801" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
       <c r="E2802" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr"/>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F2802" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="G2802" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H2802" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
       <c r="E2803" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2803" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>48.5K</t>
         </is>
       </c>
       <c r="G2803" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>50K</t>
         </is>
       </c>
       <c r="H2803" t="inlineStr">
@@ -89686,59 +89634,63 @@
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
       <c r="E2804" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr"/>
+      <c r="G2804" t="inlineStr">
+        <is>
+          <t>-10K</t>
+        </is>
+      </c>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
       <c r="E2805" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40K</t>
         </is>
       </c>
       <c r="H2805" t="inlineStr">
@@ -89750,29 +89702,29 @@
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
       <c r="E2806" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="H2806" t="inlineStr">
@@ -89784,221 +89736,253 @@
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr"/>
+      <c r="E2807" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr"/>
+      <c r="G2807" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2807" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
       <c r="E2808" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
-        </is>
-      </c>
-      <c r="F2808" t="inlineStr"/>
+          <t>256K</t>
+        </is>
+      </c>
+      <c r="F2808" t="inlineStr">
+        <is>
+          <t>170K</t>
+        </is>
+      </c>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2808" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
       <c r="E2809" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
-        </is>
-      </c>
-      <c r="F2809" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="F2809" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G2809" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2809" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
       <c r="E2810" t="inlineStr">
         <is>
-          <t>€50.101B</t>
-        </is>
-      </c>
-      <c r="F2810" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2810" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2810" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
       <c r="E2811" t="inlineStr">
         <is>
-          <t>€275.078B</t>
-        </is>
-      </c>
-      <c r="F2811" t="inlineStr"/>
-      <c r="G2811" t="inlineStr"/>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F2811" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="G2811" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2812">
       <c r="A2812" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2812" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2813" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2813" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2813" t="inlineStr"/>
       <c r="E2813" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2813" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F2813" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G2813" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2813" t="inlineStr">
@@ -90010,29 +89994,29 @@
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2814" t="inlineStr">
@@ -90044,23 +90028,31 @@
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>ECB Guindos Speech</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
-      <c r="E2815" t="inlineStr"/>
+      <c r="E2815" t="inlineStr">
+        <is>
+          <t>-13K</t>
+        </is>
+      </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2815" t="inlineStr">
         <is>
           <t>3</t>
@@ -90070,27 +90062,35 @@
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
       <c r="E2816" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
-        </is>
-      </c>
-      <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="F2816" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2816" t="inlineStr">
         <is>
           <t>3</t>
@@ -90100,27 +90100,31 @@
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2817" t="inlineStr">
         <is>
           <t>3</t>
@@ -90130,29 +90134,29 @@
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
       <c r="E2818" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>$609.1B</t>
         </is>
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>$607.0B</t>
         </is>
       </c>
       <c r="H2818" t="inlineStr">
@@ -90164,161 +90168,157 @@
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
-      <c r="E2819" t="inlineStr">
-        <is>
-          <t>$629.56B</t>
-        </is>
-      </c>
+      <c r="E2819" t="inlineStr"/>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
       <c r="H2819" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
       <c r="E2820" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2820" t="inlineStr"/>
-      <c r="G2820" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2820" t="inlineStr"/>
       <c r="H2820" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
       <c r="E2821" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
       <c r="E2822" t="inlineStr">
         <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="F2822" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="F2822" t="inlineStr">
+        <is>
+          <t>71.8</t>
+        </is>
+      </c>
       <c r="G2822" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2822" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
       <c r="E2823" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2823" t="inlineStr">
@@ -90330,55 +90330,63 @@
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>BoE Pill Speech</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
+      <c r="E2824" t="inlineStr">
+        <is>
+          <t>69.3</t>
+        </is>
+      </c>
       <c r="F2824" t="inlineStr"/>
-      <c r="G2824" t="inlineStr"/>
+      <c r="G2824" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
       <c r="H2824" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
       <c r="E2825" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2825" t="inlineStr">
@@ -90390,29 +90398,29 @@
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
       <c r="E2826" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2826" t="inlineStr">
@@ -90424,73 +90432,61 @@
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
       <c r="E2827" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2827" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G2827" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2827" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
-      <c r="E2828" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
-      <c r="F2828" t="inlineStr">
-        <is>
-          <t>48.5K</t>
-        </is>
-      </c>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>50K</t>
-        </is>
-      </c>
+      <c r="E2828" t="inlineStr"/>
+      <c r="F2828" t="inlineStr"/>
+      <c r="G2828" t="inlineStr"/>
       <c r="H2828" t="inlineStr">
         <is>
           <t>2</t>
@@ -90500,29 +90496,29 @@
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>57.5K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr">
         <is>
-          <t>-10K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2829" t="inlineStr">
@@ -90534,97 +90530,81 @@
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2830" t="inlineStr"/>
       <c r="F2830" t="inlineStr"/>
-      <c r="G2830" t="inlineStr">
-        <is>
-          <t>40K</t>
-        </is>
-      </c>
+      <c r="G2830" t="inlineStr"/>
       <c r="H2830" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2831" t="inlineStr"/>
       <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2831" t="inlineStr"/>
       <c r="H2831" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
       <c r="E2832" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2832" t="inlineStr">
@@ -90636,7 +90616,7 @@
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
@@ -90646,151 +90626,119 @@
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
       <c r="E2833" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="F2833" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
+          <t>$-7.49B</t>
+        </is>
+      </c>
+      <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2833" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2834">
-      <c r="A2834" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2834" t="inlineStr"/>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.2T</t>
         </is>
       </c>
       <c r="G2834" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2834" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2835">
-      <c r="A2835" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2835" t="inlineStr"/>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2835" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>118.1</t>
+        </is>
+      </c>
+      <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H2835" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2836">
-      <c r="A2836" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2836" t="inlineStr"/>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
-      <c r="E2836" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F2836" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E2836" t="inlineStr"/>
+      <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2836" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2837">
-      <c r="A2837" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2837" t="inlineStr"/>
       <c r="B2837" t="inlineStr">
         <is>
           <t>US</t>
@@ -90798,33 +90746,25 @@
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
-      <c r="G2837" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="G2837" t="inlineStr"/>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2838">
-      <c r="A2838" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2838" t="inlineStr"/>
       <c r="B2838" t="inlineStr">
         <is>
           <t>US</t>
@@ -90832,25 +90772,17 @@
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F2838" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2838" t="inlineStr"/>
+      <c r="G2838" t="inlineStr"/>
       <c r="H2838" t="inlineStr">
         <is>
           <t>3</t>
@@ -90860,197 +90792,161 @@
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2839" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2839" t="inlineStr">
-        <is>
-          <t>Government PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr"/>
+      <c r="C2839" t="inlineStr"/>
       <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2839" t="inlineStr"/>
+      <c r="H2839" t="inlineStr"/>
     </row>
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2840" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2841" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2841" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
       <c r="E2842" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2842" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2843" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2843" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2843" t="inlineStr"/>
+      <c r="C2843" t="inlineStr"/>
       <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
+      <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
-      <c r="G2843" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2843" t="inlineStr"/>
+      <c r="H2843" t="inlineStr"/>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr"/>
+      <c r="E2844" t="inlineStr">
+        <is>
+          <t>¥3352.5B</t>
+        </is>
+      </c>
       <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr"/>
+      <c r="G2844" t="inlineStr">
+        <is>
+          <t>¥ 1840B</t>
+        </is>
+      </c>
       <c r="H2844" t="inlineStr">
         <is>
           <t>2</t>
@@ -91060,27 +90956,31 @@
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>TRY-323.9B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
+      <c r="G2845" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2845" t="inlineStr">
         <is>
           <t>3</t>
@@ -91090,29 +90990,25 @@
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2846" t="inlineStr">
@@ -91124,69 +91020,49 @@
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2847" t="inlineStr">
-        <is>
-          <t>71.8</t>
-        </is>
-      </c>
-      <c r="G2847" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="E2847" t="inlineStr"/>
+      <c r="F2847" t="inlineStr"/>
+      <c r="G2847" t="inlineStr"/>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2848">
-      <c r="A2848" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2848" t="inlineStr"/>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
-      <c r="G2848" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2848" t="inlineStr"/>
       <c r="H2848" t="inlineStr">
         <is>
           <t>3</t>
@@ -91196,65 +91072,41 @@
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2849" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2849" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2849" t="inlineStr"/>
+      <c r="C2849" t="inlineStr"/>
       <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
+      <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2849" t="inlineStr"/>
+      <c r="H2849" t="inlineStr"/>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="G2850" t="inlineStr"/>
       <c r="H2850" t="inlineStr">
         <is>
           <t>3</t>
@@ -91264,31 +91116,27 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Eco Watchers Survey OutlookJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2851" t="inlineStr"/>
       <c r="H2851" t="inlineStr">
         <is>
           <t>3</t>
@@ -91298,35 +91146,27 @@
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2852" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2852" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>2.625%</t>
+        </is>
+      </c>
+      <c r="F2852" t="inlineStr"/>
+      <c r="G2852" t="inlineStr"/>
       <c r="H2852" t="inlineStr">
         <is>
           <t>3</t>
@@ -91336,23 +91176,31 @@
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr"/>
+      <c r="E2853" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr"/>
+      <c r="G2853" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="H2853" t="inlineStr">
         <is>
           <t>2</t>
@@ -91362,29 +91210,29 @@
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>$4.8B</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr">
         <is>
-          <t>$4.1B</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="H2854" t="inlineStr">
@@ -91396,23 +91244,31 @@
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
-      <c r="E2855" t="inlineStr"/>
+      <c r="E2855" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr"/>
+      <c r="G2855" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H2855" t="inlineStr">
         <is>
           <t>3</t>
@@ -91422,23 +91278,31 @@
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
-      <c r="E2856" t="inlineStr"/>
+      <c r="E2856" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
       <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr"/>
+      <c r="G2856" t="inlineStr">
+        <is>
+          <t>54.6%</t>
+        </is>
+      </c>
       <c r="H2856" t="inlineStr">
         <is>
           <t>3</t>
@@ -91448,29 +91312,29 @@
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Auto Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
@@ -91482,29 +91346,29 @@
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
@@ -91514,33 +91378,25 @@
       </c>
     </row>
     <row r="2859">
-      <c r="A2859" t="inlineStr"/>
+      <c r="A2859" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
-      <c r="E2859" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2859" t="inlineStr">
-        <is>
-          <t>$3.2T</t>
-        </is>
-      </c>
-      <c r="G2859" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
+      <c r="E2859" t="inlineStr"/>
+      <c r="F2859" t="inlineStr"/>
+      <c r="G2859" t="inlineStr"/>
       <c r="H2859" t="inlineStr">
         <is>
           <t>3</t>
@@ -91548,25 +91404,25 @@
       </c>
     </row>
     <row r="2860">
-      <c r="A2860" t="inlineStr"/>
+      <c r="A2860" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr"/>
       <c r="F2860" t="inlineStr"/>
-      <c r="G2860" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
+      <c r="G2860" t="inlineStr"/>
       <c r="H2860" t="inlineStr">
         <is>
           <t>3</t>
@@ -91574,29 +91430,25 @@
       </c>
     </row>
     <row r="2861">
-      <c r="A2861" t="inlineStr"/>
+      <c r="A2861" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
-      <c r="E2861" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
+      <c r="E2861" t="inlineStr"/>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="G2861" t="inlineStr"/>
       <c r="H2861" t="inlineStr">
         <is>
           <t>3</t>
@@ -91604,33 +91456,37 @@
       </c>
     </row>
     <row r="2862">
-      <c r="A2862" t="inlineStr"/>
+      <c r="A2862" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>BoC Market Participants Survey</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E2862" t="inlineStr"/>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
       <c r="H2862" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2863">
-      <c r="A2863" t="inlineStr"/>
+      <c r="A2863" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B2863" t="inlineStr">
         <is>
           <t>US</t>
@@ -91638,13 +91494,13 @@
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
@@ -91658,195 +91514,187 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2864" t="inlineStr"/>
-      <c r="C2864" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2864" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr"/>
+      <c r="H2864" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2865" t="inlineStr"/>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G2865" t="inlineStr"/>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Westpac Consumer Confidence ChangeFEB</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E2866" t="inlineStr"/>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2866" t="inlineStr"/>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Westpac Consumer Confidence IndexFEB</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
+      <c r="G2867" t="inlineStr"/>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2868" t="inlineStr"/>
-      <c r="C2868" t="inlineStr"/>
+          <t>07:01 PM</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>BRC Retail Sales Monitor YoYJAN</t>
+        </is>
+      </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr"/>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr"/>
+      <c r="H2868" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>NAB Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>¥3352.5B</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
+      <c r="G2869" t="inlineStr"/>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Bank Lending YoYJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>127.7</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G2870" t="inlineStr"/>
       <c r="H2870" t="inlineStr">
         <is>
           <t>3</t>
@@ -91854,27 +91702,27 @@
       </c>
     </row>
     <row r="2871">
-      <c r="A2871" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2871" t="inlineStr"/>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr"/>
+      <c r="E2871" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H2871" t="inlineStr">
@@ -91884,19 +91732,15 @@
       </c>
     </row>
     <row r="2872">
-      <c r="A2872" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2872" t="inlineStr"/>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalDEC</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
@@ -91913,18 +91757,18 @@
       <c r="A2873" t="inlineStr"/>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYJAN</t>
+          <t>M2 Money Supply YoYJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>-5.5%</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
@@ -91936,41 +91780,45 @@
       </c>
     </row>
     <row r="2874">
-      <c r="A2874" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2874" t="inlineStr"/>
-      <c r="C2874" t="inlineStr"/>
+      <c r="A2874" t="inlineStr"/>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>Outstanding Loan Growth YoYJAN</t>
+        </is>
+      </c>
       <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr"/>
+      <c r="E2874" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr"/>
+      <c r="H2874" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2875">
-      <c r="A2875" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2875" t="inlineStr"/>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
+          <t>Total Social FinancingJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
+      <c r="E2875" t="inlineStr"/>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
       <c r="H2875" t="inlineStr">
@@ -91980,25 +91828,21 @@
       </c>
     </row>
     <row r="2876">
-      <c r="A2876" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2876" t="inlineStr"/>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
@@ -92012,93 +91856,69 @@
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2877" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2877" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
+          <t>Tuesday February 11 2025</t>
+        </is>
+      </c>
+      <c r="B2877" t="inlineStr"/>
+      <c r="C2877" t="inlineStr"/>
       <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
+      <c r="E2877" t="inlineStr"/>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2877" t="inlineStr"/>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E2878" t="inlineStr"/>
       <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
+      <c r="G2878" t="inlineStr"/>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>8.6%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>8.50%</t>
+          <t>7.60%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
@@ -92120,19 +91940,19 @@
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
@@ -92154,19 +91974,19 @@
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>16.4%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>54.6%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
@@ -92178,31 +91998,27 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Auto Exports YoYJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>2.493%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="G2882" t="inlineStr"/>
       <c r="H2882" t="inlineStr">
         <is>
           <t>3</t>
@@ -92212,31 +92028,27 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Auto Production YoYJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.485%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G2883" t="inlineStr"/>
       <c r="H2883" t="inlineStr">
         <is>
           <t>3</t>
@@ -92246,17 +92058,17 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
@@ -92272,23 +92084,31 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr"/>
+      <c r="E2885" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
+      <c r="G2885" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H2885" t="inlineStr">
         <is>
           <t>3</t>
@@ -92298,23 +92118,31 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr"/>
+      <c r="E2886" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
+      <c r="G2886" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="H2886" t="inlineStr">
         <is>
           <t>3</t>
@@ -92324,17 +92152,17 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>BoC Market Participants Survey</t>
+          <t>NFIB Business Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
@@ -92343,86 +92171,106 @@
       <c r="G2887" t="inlineStr"/>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
+      <c r="G2888" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr"/>
+      <c r="E2889" t="inlineStr">
+        <is>
+          <t>4.83%</t>
+        </is>
+      </c>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr"/>
+      <c r="G2889" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr"/>
+      <c r="E2890" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr"/>
+      <c r="G2890" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2890" t="inlineStr">
         <is>
           <t>3</t>
@@ -92432,133 +92280,145 @@
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeFEB</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr"/>
+      <c r="E2891" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
       <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr"/>
+      <c r="G2891" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexFEB</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr"/>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>$ 10.7B</t>
+        </is>
+      </c>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>BRC Retail Sales Monitor YoYJAN</t>
+          <t>Building Permits MoMDEC</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr"/>
+      <c r="E2893" t="inlineStr">
+        <is>
+          <t>-5.9%</t>
+        </is>
+      </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>-4.8%</t>
+        </is>
+      </c>
       <c r="H2893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:50 AM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceJAN</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
+      <c r="E2894" t="inlineStr"/>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr"/>
       <c r="H2894" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Redbook YoYFEB/08</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr">
-        <is>
-          <t>127.7</t>
-        </is>
-      </c>
+      <c r="E2895" t="inlineStr"/>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr"/>
       <c r="H2895" t="inlineStr">
@@ -92571,26 +92431,22 @@
       <c r="A2896" t="inlineStr"/>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G2896" t="inlineStr"/>
       <c r="H2896" t="inlineStr">
         <is>
           <t>3</t>
@@ -92601,659 +92457,23 @@
       <c r="A2897" t="inlineStr"/>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>New Yuan LoansJAN</t>
+          <t>Auto Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr"/>
+      <c r="E2897" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2898">
-      <c r="A2898" t="inlineStr"/>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr"/>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr"/>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr"/>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr">
-        <is>
-          <t>10.5%</t>
-        </is>
-      </c>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr"/>
-      <c r="C2902" t="inlineStr"/>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr"/>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
-      <c r="H2902" t="inlineStr"/>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr"/>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>7.60%</t>
-        </is>
-      </c>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>2.493%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr"/>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>2.485%</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr"/>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr"/>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr"/>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2911" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
-      <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="H2911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr"/>
-      <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr"/>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2913" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2913" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2913" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2915">
-      <c r="A2915" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2916" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2916" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H2916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr"/>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>$ 10.7B</t>
-        </is>
-      </c>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr"/>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Auto Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr"/>
-      <c r="B2919" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2919" t="inlineStr">
-        <is>
-          <t>Auto Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr"/>
-      <c r="H2919" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2897"/>
+  <dimension ref="A1:H2872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89421,10 +89421,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -89455,10 +89453,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -89481,10 +89477,8 @@
       <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2800">
@@ -89515,10 +89509,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -89549,10 +89541,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -89587,10 +89577,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2803">
@@ -89625,10 +89613,8 @@
           <t>50K</t>
         </is>
       </c>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2804">
@@ -89659,10 +89645,8 @@
           <t>-10K</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -89693,10 +89677,8 @@
           <t>40K</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2806">
@@ -89727,10 +89709,8 @@
           <t>65.0%</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2807">
@@ -89761,10 +89741,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -89799,10 +89777,8 @@
           <t>205K</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2809">
@@ -89837,10 +89813,8 @@
           <t>4.1%</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2810">
@@ -89875,10 +89849,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2811">
@@ -89913,10 +89885,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2812">
@@ -89947,10 +89917,8 @@
           <t>62.5%</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -89985,10 +89953,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90019,10 +89985,8 @@
           <t>25K</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90053,10 +90017,8 @@
           <t>-5K</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90091,10 +90053,8 @@
           <t>180K</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90125,10 +90085,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -90159,10 +90117,8 @@
           <t>$607.0B</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -90185,10 +90141,8 @@
       <c r="E2819" t="inlineStr"/>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -90215,10 +90169,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90249,10 +90201,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90287,10 +90237,8 @@
           <t>72</t>
         </is>
       </c>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2823">
@@ -90321,10 +90269,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90355,10 +90301,8 @@
           <t>69.5</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90389,10 +90333,8 @@
           <t>74.3</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -90423,10 +90365,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -90461,10 +90401,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -90487,10 +90425,8 @@
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -90521,10 +90457,8 @@
           <t>$4.1B</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2830">
@@ -90547,10 +90481,8 @@
       <c r="E2830" t="inlineStr"/>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -90573,10 +90505,8 @@
       <c r="E2831" t="inlineStr"/>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -90607,10 +90537,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -90641,10 +90569,8 @@
           <t>$ 18B</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -90675,10 +90601,8 @@
           <t>$3.3T</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -90705,10 +90629,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -90731,10 +90653,8 @@
           <t>116</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -90757,10 +90677,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -90783,10 +90701,8 @@
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -90831,10 +90747,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2841">
@@ -90865,10 +90779,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2842">
@@ -90899,10 +90811,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -90947,10 +90857,8 @@
           <t>¥ 1840B</t>
         </is>
       </c>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -90981,10 +90889,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -91011,10 +90917,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -91037,10 +90941,8 @@
       <c r="E2847" t="inlineStr"/>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -91063,48 +90965,50 @@
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
-      <c r="A2849" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2849" t="inlineStr"/>
-      <c r="C2849" t="inlineStr"/>
+      <c r="A2849" t="inlineStr"/>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2849" t="inlineStr">
+        <is>
+          <t>Outstanding Loan Growth YoYJAN</t>
+        </is>
+      </c>
       <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr"/>
+      <c r="E2849" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr"/>
+      <c r="H2849" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2850">
-      <c r="A2850" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2850" t="inlineStr"/>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
+          <t>Total Social FinancingJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
+      <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
       <c r="H2850" t="inlineStr">
@@ -91114,25 +91018,21 @@
       </c>
     </row>
     <row r="2851">
-      <c r="A2851" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2851" t="inlineStr"/>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
@@ -91146,93 +91046,69 @@
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2852" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2852" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
+          <t>Tuesday February 11 2025</t>
+        </is>
+      </c>
+      <c r="B2852" t="inlineStr"/>
+      <c r="C2852" t="inlineStr"/>
       <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
+      <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2852" t="inlineStr"/>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
+      <c r="G2853" t="inlineStr"/>
       <c r="H2853" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>8.6%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr">
         <is>
-          <t>8.50%</t>
+          <t>7.60%</t>
         </is>
       </c>
       <c r="H2854" t="inlineStr">
@@ -91254,19 +91130,19 @@
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2855" t="inlineStr">
@@ -91288,19 +91164,19 @@
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>16.4%</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>54.6%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
@@ -91312,31 +91188,27 @@
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Auto Exports YoYJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>2.493%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
-      <c r="G2857" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="G2857" t="inlineStr"/>
       <c r="H2857" t="inlineStr">
         <is>
           <t>3</t>
@@ -91346,31 +91218,27 @@
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Auto Production YoYJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.485%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G2858" t="inlineStr"/>
       <c r="H2858" t="inlineStr">
         <is>
           <t>3</t>
@@ -91380,17 +91248,17 @@
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
@@ -91406,23 +91274,31 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
-      <c r="E2860" t="inlineStr"/>
+      <c r="E2860" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F2860" t="inlineStr"/>
-      <c r="G2860" t="inlineStr"/>
+      <c r="G2860" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H2860" t="inlineStr">
         <is>
           <t>3</t>
@@ -91432,23 +91308,31 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
-      <c r="E2861" t="inlineStr"/>
+      <c r="E2861" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
+      <c r="G2861" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="H2861" t="inlineStr">
         <is>
           <t>3</t>
@@ -91458,17 +91342,17 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>BoC Market Participants Survey</t>
+          <t>NFIB Business Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
@@ -91477,86 +91361,106 @@
       <c r="G2862" t="inlineStr"/>
       <c r="H2862" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2863" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr"/>
+      <c r="E2864" t="inlineStr">
+        <is>
+          <t>4.83%</t>
+        </is>
+      </c>
       <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
+      <c r="G2864" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr"/>
+      <c r="E2865" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
+      <c r="G2865" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2865" t="inlineStr">
         <is>
           <t>3</t>
@@ -91566,133 +91470,145 @@
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeFEB</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr"/>
+      <c r="E2866" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexFEB</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
+      <c r="G2867" t="inlineStr">
+        <is>
+          <t>$ 10.7B</t>
+        </is>
+      </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>BRC Retail Sales Monitor YoYJAN</t>
+          <t>Building Permits MoMDEC</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr"/>
+      <c r="E2868" t="inlineStr">
+        <is>
+          <t>-5.9%</t>
+        </is>
+      </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>-4.8%</t>
+        </is>
+      </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:50 AM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceJAN</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
+      <c r="E2869" t="inlineStr"/>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr"/>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Redbook YoYFEB/08</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr">
-        <is>
-          <t>127.7</t>
-        </is>
-      </c>
+      <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
       <c r="H2870" t="inlineStr">
@@ -91705,26 +91621,22 @@
       <c r="A2871" t="inlineStr"/>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G2871" t="inlineStr"/>
       <c r="H2871" t="inlineStr">
         <is>
           <t>3</t>
@@ -91735,745 +91647,23 @@
       <c r="A2872" t="inlineStr"/>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>New Yuan LoansJAN</t>
+          <t>Auto Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr"/>
+      <c r="E2872" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
       <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2873">
-      <c r="A2873" t="inlineStr"/>
-      <c r="B2873" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2873" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2874">
-      <c r="A2874" t="inlineStr"/>
-      <c r="B2874" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2874" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2875">
-      <c r="A2875" t="inlineStr"/>
-      <c r="B2875" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2875" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr"/>
-      <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2876">
-      <c r="A2876" t="inlineStr"/>
-      <c r="B2876" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2876" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>10.5%</t>
-        </is>
-      </c>
-      <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2877">
-      <c r="A2877" t="inlineStr">
-        <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B2877" t="inlineStr"/>
-      <c r="C2877" t="inlineStr"/>
-      <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr"/>
-      <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr"/>
-    </row>
-    <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2878" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr"/>
-      <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2879" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2879" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr">
-        <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr">
-        <is>
-          <t>7.60%</t>
-        </is>
-      </c>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2880">
-      <c r="A2880" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2880" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2880" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2881" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2881" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2882">
-      <c r="A2882" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B2882" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2882" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr">
-        <is>
-          <t>2.493%</t>
-        </is>
-      </c>
-      <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2883">
-      <c r="A2883" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B2883" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2883" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr">
-        <is>
-          <t>2.485%</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2884">
-      <c r="A2884" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2884" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2884" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr"/>
-      <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2885">
-      <c r="A2885" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2885" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2885" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2886" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2886" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
-      <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2887" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2887" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr"/>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2888" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2888" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2889" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2889" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
-      <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2890" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2890" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2891" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2891" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2892" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2892" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr"/>
-      <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr">
-        <is>
-          <t>$ 10.7B</t>
-        </is>
-      </c>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2893" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2893" t="inlineStr">
-        <is>
-          <t>Building Permits MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>-5.9%</t>
-        </is>
-      </c>
-      <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>-4.8%</t>
-        </is>
-      </c>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>08:50 AM</t>
-        </is>
-      </c>
-      <c r="B2894" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2894" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr"/>
-      <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/08</t>
-        </is>
-      </c>
-      <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
-      <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2896">
-      <c r="A2896" t="inlineStr"/>
-      <c r="B2896" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2896" t="inlineStr">
-        <is>
-          <t>Auto Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2897">
-      <c r="A2897" t="inlineStr"/>
-      <c r="B2897" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2897" t="inlineStr">
-        <is>
-          <t>Auto Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2872"/>
+  <dimension ref="A1:H2873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90708,265 +90708,269 @@
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2839" t="inlineStr"/>
-      <c r="C2839" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2839" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr"/>
+      <c r="H2839" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
-      <c r="E2840" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2840" t="inlineStr"/>
       <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2840" t="n">
-        <v>1</v>
+      <c r="G2840" t="inlineStr"/>
+      <c r="H2840" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Westpac Consumer Confidence ChangeFEB</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
-      <c r="E2841" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E2841" t="inlineStr"/>
       <c r="F2841" t="inlineStr"/>
-      <c r="G2841" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2841" t="n">
-        <v>2</v>
+      <c r="G2841" t="inlineStr"/>
+      <c r="H2841" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Westpac Consumer Confidence IndexFEB</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
-      <c r="G2842" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2842" t="n">
-        <v>2</v>
+      <c r="G2842" t="inlineStr"/>
+      <c r="H2842" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2843" t="inlineStr"/>
-      <c r="C2843" t="inlineStr"/>
+          <t>07:01 PM</t>
+        </is>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2843" t="inlineStr">
+        <is>
+          <t>BRC Retail Sales Monitor YoYJAN</t>
+        </is>
+      </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr"/>
+      <c r="H2843" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>NAB Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>¥3352.5B</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
-      <c r="H2844" t="n">
-        <v>2</v>
+      <c r="G2844" t="inlineStr"/>
+      <c r="H2844" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Bank Lending YoYJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>127.7</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2845" t="n">
-        <v>3</v>
+      <c r="G2845" t="inlineStr"/>
+      <c r="H2845" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2846">
-      <c r="A2846" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2846" t="inlineStr"/>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr"/>
+      <c r="E2846" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2846" t="n">
-        <v>3</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H2846" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2847">
-      <c r="A2847" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2847" t="inlineStr"/>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalDEC</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr"/>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="n">
-        <v>3</v>
+      <c r="H2847" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr"/>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYJAN</t>
+          <t>M2 Money Supply YoYJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>-5.5%</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="n">
-        <v>3</v>
+      <c r="H2848" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2849">
@@ -91618,23 +91622,23 @@
       </c>
     </row>
     <row r="2871">
-      <c r="A2871" t="inlineStr"/>
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Auto Production YoYJAN</t>
+          <t>Total Household DebtQ4</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
       <c r="H2871" t="inlineStr">
@@ -91652,18 +91656,44 @@
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Auto Sales YoYJAN</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
       <c r="H2872" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="inlineStr"/>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>Auto Sales YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2873" t="inlineStr"/>
+      <c r="E2873" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="F2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr"/>
+      <c r="H2873" t="inlineStr">
         <is>
           <t>3</t>
         </is>
